--- a/Data/Codes.xlsx
+++ b/Data/Codes.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
+    <sheet name="Champions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,152 +25,293 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>Chest Code</t>
   </si>
   <si>
-    <t>Chest Reward</t>
-  </si>
-  <si>
-    <t>1x Electrum Chest</t>
+    <t>AAAA-RRRR-TTTT</t>
+  </si>
+  <si>
+    <t>YAYV-ALEN-TINE</t>
+  </si>
+  <si>
+    <t>RECA-PTIM-EJOY</t>
+  </si>
+  <si>
+    <t>CAUM-YAWY-DINT</t>
+  </si>
+  <si>
+    <t>PAWL-SIRS-TART</t>
+  </si>
+  <si>
+    <t>VALE-NTIN-EDAY</t>
+  </si>
+  <si>
+    <t>TYPP-JEED-ORYX</t>
+  </si>
+  <si>
+    <t>COZE-KAYS-FALL</t>
+  </si>
+  <si>
+    <t>KOAS-BANI-AUNE</t>
+  </si>
+  <si>
+    <t>DWCG-TVAV-EZYL</t>
+  </si>
+  <si>
+    <t>DEAL-DEFT-BLUB</t>
+  </si>
+  <si>
+    <t>DNDS-ONGT-IME!</t>
+  </si>
+  <si>
+    <t>BEEP-MUGG-DZWS-CPXP</t>
+  </si>
+  <si>
+    <t>VENA-NIES-KAGU</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE52</t>
+  </si>
+  <si>
+    <t>TIME-GATE-RUSH</t>
+  </si>
+  <si>
+    <t>DART-RONE-DEAW</t>
+  </si>
+  <si>
+    <t>WIDD-LEFI-GHTS</t>
+  </si>
+  <si>
+    <t>THEE-LISA-BEHN</t>
+  </si>
+  <si>
+    <t>JULY-PATR-ONS!</t>
+  </si>
+  <si>
+    <t>KAYS-FEEL-KERN</t>
+  </si>
+  <si>
+    <t>LEVO-ALMA-POEP</t>
+  </si>
+  <si>
+    <t>MWAH-SANS-HURT</t>
+  </si>
+  <si>
+    <t>GADS-WEFT-GEDS</t>
+  </si>
+  <si>
+    <t>STEN-GLIB-ZEIN</t>
+  </si>
+  <si>
+    <t>SPAW-FEAL-PERV</t>
+  </si>
+  <si>
+    <t>BLAC-KPIT-SBOO</t>
+  </si>
+  <si>
+    <t>THEB-ASIC-FORM</t>
+  </si>
+  <si>
+    <t>WHAT-ISFA-VOR!</t>
+  </si>
+  <si>
+    <t>APED-PULU-NOTA</t>
+  </si>
+  <si>
+    <t>ICP4-THEB-LACK-PITS</t>
+  </si>
+  <si>
+    <t>LEAR-NTOP-LAY!</t>
+  </si>
+  <si>
+    <t>MINI-SCAG-WALY</t>
+  </si>
+  <si>
+    <t>XXXX-XXXX-XXXX</t>
+  </si>
+  <si>
+    <t>BETA-AREG-BURZ</t>
+  </si>
+  <si>
+    <t>FINA-LCHI-MERA</t>
+  </si>
+  <si>
+    <t>LUDS-TYRE-YONT</t>
+  </si>
+  <si>
+    <t>HAPP-YHAP-PYFA-STGO</t>
+  </si>
+  <si>
+    <t>LUKE-COMI-CS!!</t>
+  </si>
+  <si>
+    <t>MAXI-YIKE-KAGU</t>
+  </si>
+  <si>
+    <t>HOUR-HALF-ERLY</t>
+  </si>
+  <si>
+    <t>GLAD-IATO-R!!!</t>
+  </si>
+  <si>
+    <t>AAAA-AAAA-AAAA</t>
+  </si>
+  <si>
+    <t>SPRY-USER-PEAK</t>
+  </si>
+  <si>
+    <t>EACH-LONG-CALF</t>
+  </si>
+  <si>
+    <t>BAND-AKIN-IRON</t>
+  </si>
+  <si>
+    <t>SEWN-RAIK-BENE</t>
+  </si>
+  <si>
+    <t>OHBO-YITS-FAST</t>
+  </si>
+  <si>
+    <t>HOUR-OFSU-MMER</t>
+  </si>
+  <si>
+    <t>DIVE-DOWN-DEEP</t>
+  </si>
+  <si>
+    <t>LOON-DIED-PITA</t>
+  </si>
+  <si>
+    <t>BLCK-PITS-GLAM</t>
+  </si>
+  <si>
+    <t>MARS-ONMO-DRON</t>
+  </si>
+  <si>
+    <t>BUOY-KESH-RILE</t>
+  </si>
+  <si>
+    <t>TAHR-PLEB-GEDS</t>
+  </si>
+  <si>
+    <t>PARK-SUNI-MAUN</t>
+  </si>
+  <si>
+    <t>RZVM-WEEK-DEWY-TEND</t>
+  </si>
+  <si>
+    <t>ATMA-ODSO-THIN</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE51</t>
+  </si>
+  <si>
+    <t>ARTI-STAL-EXIS</t>
+  </si>
+  <si>
+    <t>SUMM-ERIS-SOON</t>
+  </si>
+  <si>
+    <t>ITSR-ESET-TIME</t>
+  </si>
+  <si>
+    <t>KAID-IMMY-NAFF</t>
+  </si>
+  <si>
+    <t>TRIP-EVIL-SERK</t>
+  </si>
+  <si>
+    <t>DUDS-NABS-TEAR</t>
+  </si>
+  <si>
+    <t>SPEW-BLED-FROS</t>
+  </si>
+  <si>
+    <t>DIED-DUCK-ERHU</t>
+  </si>
+  <si>
+    <t>TICK-FAIK-COOF</t>
+  </si>
+  <si>
+    <t>PESO-MOSS-DITA</t>
+  </si>
+  <si>
+    <t>YOUR-GUID-ETOD-ANDD</t>
+  </si>
+  <si>
+    <t>THET-ARRA-SQUE</t>
+  </si>
+  <si>
+    <t>PTDP-TNRN-MDPP</t>
   </si>
   <si>
     <t>MRHQ-KRX9-WKGH</t>
   </si>
   <si>
-    <t>Celeste Starter Pack</t>
-  </si>
-  <si>
     <t>MOON-CARD-WISH</t>
   </si>
   <si>
-    <t>2x Ellywick Silver Chests</t>
-  </si>
-  <si>
     <t>JOYF-ULLY-EVIL</t>
   </si>
   <si>
-    <t>2x Prudence Silver Chests</t>
-  </si>
-  <si>
     <t>ELLY-WICK-CARD</t>
   </si>
   <si>
-    <t>5x Gold Chest</t>
-  </si>
-  <si>
     <t>MAYH-EM&amp;M-USIC</t>
   </si>
   <si>
-    <t>2x Brig Silver Chests</t>
-  </si>
-  <si>
     <t>EACH-NERD-HASA-ROLE</t>
   </si>
   <si>
-    <t>2x Silver Chests</t>
-  </si>
-  <si>
     <t>IMPO-SING-PRES-ENCE</t>
   </si>
   <si>
-    <t>2x Sgt. Knox Silver Chests</t>
-  </si>
-  <si>
     <t>ECHO-OFZA-RIEL</t>
   </si>
   <si>
-    <t>2 Silver Chests</t>
-  </si>
-  <si>
     <t>HEAL-ING&amp;-FIRE</t>
   </si>
   <si>
-    <t>2 Orkira Silver Chests</t>
-  </si>
-  <si>
     <t>CAPT-AINS-COAT</t>
   </si>
   <si>
-    <t>2 Corazón Silver Chests</t>
-  </si>
-  <si>
     <t>DEVA-SREG-ALIA</t>
   </si>
   <si>
-    <t>2 Orisha Silver Chests</t>
-  </si>
-  <si>
     <t>BLOT-CHOF-BLUE</t>
   </si>
   <si>
-    <t>2 D'hani Silver Chests</t>
-  </si>
-  <si>
     <t>GRUM-PY&amp;G-RUFF</t>
   </si>
   <si>
-    <t>2 Mehen Silver Chests</t>
-  </si>
-  <si>
     <t>PALA-DINO-FTYR</t>
   </si>
   <si>
-    <t>2 Selise Silver Chests</t>
-  </si>
-  <si>
     <t>FELL-OWHU-MANS</t>
   </si>
   <si>
-    <t>2x Hew Maan Silver Chests</t>
-  </si>
-  <si>
     <t>SPOT-WEAK-NESS</t>
   </si>
   <si>
-    <t>2x Talin Silver Chests</t>
-  </si>
-  <si>
     <t>DOPP-ELGA-NGER</t>
   </si>
   <si>
     <t>UNHO-LYBL-IGHT</t>
   </si>
   <si>
-    <t>2x Viconia Silver Chest</t>
-  </si>
-  <si>
     <t>SHAK-ASPU-ZZLE</t>
   </si>
   <si>
-    <t>2x Shaka Silver Chest</t>
-  </si>
-  <si>
     <t>AMUR-DERB-UNNY</t>
   </si>
   <si>
-    <t>2x Yorven Silver Chest</t>
-  </si>
-  <si>
     <t>ACQI-NCEV-ELYN</t>
   </si>
   <si>
-    <t>Unlocks Evelyn + 3x Gold Evelyn Chests</t>
-  </si>
-  <si>
-    <t>STRI-XACQ-INC!</t>
-  </si>
-  <si>
-    <t>Unlocks Strix + 3x Gold Strix Chests</t>
-  </si>
-  <si>
     <t>EYES-WIDE-OPEN</t>
   </si>
   <si>
-    <t>requires Avren unlock</t>
-  </si>
-  <si>
     <t>STAG-GERM-EATY</t>
   </si>
   <si>
@@ -203,21 +345,12 @@
     <t>KARM-ICMA-DJIG</t>
   </si>
   <si>
-    <t>Green Flame Skin</t>
-  </si>
-  <si>
     <t>REST-INPI-ECES-PURT</t>
   </si>
   <si>
-    <t>Gold Spurt Chest</t>
-  </si>
-  <si>
     <t>WAKA-NDA4-EVER</t>
   </si>
   <si>
-    <t>1 Gold Chest</t>
-  </si>
-  <si>
     <t>MAXD-UNBA-RFTW</t>
   </si>
   <si>
@@ -230,9 +363,6 @@
     <t>TAKE-THIS-LOOT-CODE</t>
   </si>
   <si>
-    <t>1 Gold Strix Chest</t>
-  </si>
-  <si>
     <t>IDLE-CHAM-PION-SNOW</t>
   </si>
   <si>
@@ -240,6 +370,24 @@
   </si>
   <si>
     <t>MELA-RUME-CHUT</t>
+  </si>
+  <si>
+    <t>Redeemed</t>
+  </si>
+  <si>
+    <t>RUSH-TOMB-BLES-SING</t>
+  </si>
+  <si>
+    <t>STRIX ACQ INC!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNLO-CKDM-NOW! </t>
+  </si>
+  <si>
+    <t>NEXTMGHAUG9!</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE55</t>
   </si>
 </sst>
 </file>
@@ -561,14 +709,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B61" sqref="B57:B67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -577,353 +727,977 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>71</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Codes.xlsx
+++ b/Data/Codes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Chest Code</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>FORM-ATIO-NE55</t>
+  </si>
+  <si>
+    <t>LIRI-JURA-TINK</t>
   </si>
 </sst>
 </file>
@@ -711,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B61" sqref="B57:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +735,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -740,7 +743,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -748,7 +751,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -756,7 +759,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -764,7 +767,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -772,7 +775,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -780,7 +783,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -788,7 +791,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -796,7 +799,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -804,7 +807,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -812,7 +815,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -820,7 +823,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -828,7 +831,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -836,7 +839,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -844,7 +847,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -852,7 +855,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -860,7 +863,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -868,7 +871,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -876,7 +879,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -884,7 +887,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -892,7 +895,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -900,7 +903,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -908,7 +911,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -916,7 +919,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -924,7 +927,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -932,7 +935,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -940,7 +943,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -948,7 +951,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -956,7 +959,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -964,7 +967,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -972,7 +975,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -988,7 +991,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -996,7 +999,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -1020,7 +1023,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -1036,7 +1039,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -1052,7 +1055,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -1068,7 +1071,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -1076,7 +1079,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -1100,7 +1103,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -1108,7 +1111,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -1116,7 +1119,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -1124,7 +1127,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -1132,7 +1135,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -1180,7 +1183,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -1188,7 +1191,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -1204,7 +1207,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -1228,7 +1231,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -1236,7 +1239,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -1244,7 +1247,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -1284,7 +1287,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -1292,7 +1295,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -1308,7 +1311,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -1316,7 +1319,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
@@ -1372,7 +1375,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
@@ -1388,7 +1391,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -1404,7 +1407,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
@@ -1428,7 +1431,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B90" t="b">
         <v>1</v>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -1460,7 +1463,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -1468,7 +1471,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B94" t="b">
         <v>1</v>
@@ -1476,7 +1479,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
@@ -1484,7 +1487,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="b">
         <v>1</v>
@@ -1500,7 +1503,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="B98" t="b">
         <v>1</v>
@@ -1508,7 +1511,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B99" t="b">
         <v>1</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B100" t="b">
         <v>1</v>
@@ -1524,7 +1527,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B101" t="b">
         <v>1</v>
@@ -1532,7 +1535,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B102" t="b">
         <v>1</v>
@@ -1540,7 +1543,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B103" t="b">
         <v>1</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B104" t="b">
         <v>1</v>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" t="b">
         <v>1</v>
@@ -1564,7 +1567,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B106" t="b">
         <v>1</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B107" t="b">
         <v>1</v>
@@ -1580,7 +1583,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B108" t="b">
         <v>1</v>
@@ -1588,7 +1591,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B109" t="b">
         <v>1</v>
@@ -1596,7 +1599,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B110" t="b">
         <v>1</v>
@@ -1604,7 +1607,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="B111" t="b">
         <v>1</v>
@@ -1612,7 +1615,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="B112" t="b">
         <v>1</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B113" t="b">
         <v>1</v>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B114" t="b">
         <v>1</v>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="B115" t="b">
         <v>1</v>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B116" t="b">
         <v>1</v>
@@ -1652,7 +1655,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B117" t="b">
         <v>1</v>
@@ -1660,13 +1663,16 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B118" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B118">
+    <sortCondition ref="A2:A118"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Codes.xlsx
+++ b/Data/Codes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="845">
   <si>
     <t>Chest Code</t>
   </si>
@@ -391,6 +391,2175 @@
   </si>
   <si>
     <t>LIRI-JURA-TINK</t>
+  </si>
+  <si>
+    <t>TIMEGATERUSH</t>
+  </si>
+  <si>
+    <t>YAYVALENTINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALENTINETODAY!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAROVIANLORD </t>
+  </si>
+  <si>
+    <t>OTTO-ODOR-ALUM</t>
+  </si>
+  <si>
+    <t>GILZ-HWNS-LZAR</t>
+  </si>
+  <si>
+    <t>KAKI-MARE-VIAS</t>
+  </si>
+  <si>
+    <t>LOPS-BOPS-HEAT</t>
+  </si>
+  <si>
+    <t>THESOCIALITE</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE53</t>
+  </si>
+  <si>
+    <t>FREE-LYFI-GHTS</t>
+  </si>
+  <si>
+    <t>INTHEARMSOFHADAR</t>
+  </si>
+  <si>
+    <t>SAIG-EINS-IGHT</t>
+  </si>
+  <si>
+    <t>VACA-TION-TIME</t>
+  </si>
+  <si>
+    <t>OOPS-NEWT-IME!</t>
+  </si>
+  <si>
+    <t>MANO-KIPE-STAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAILGODBRAIN </t>
+  </si>
+  <si>
+    <t>AGMA-THAT-MOOI</t>
+  </si>
+  <si>
+    <t>XHZT-CQZE-FMUX</t>
+  </si>
+  <si>
+    <t>BAEL-OTHB-LACK-PITS</t>
+  </si>
+  <si>
+    <t>BACK-TONO-RMAL</t>
+  </si>
+  <si>
+    <t>OUTH-OUSE-MINI</t>
+  </si>
+  <si>
+    <t>GYNY-DOIT-MEEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAKF-LOLL-HYPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITSVALENTINESDAY </t>
+  </si>
+  <si>
+    <t>TATY-ANAP-ITS!</t>
+  </si>
+  <si>
+    <t>MOPY-IDES-ECCE</t>
+  </si>
+  <si>
+    <t>RUSH-VILD-NAME</t>
+  </si>
+  <si>
+    <t>CULL-RHUS-GLUT</t>
+  </si>
+  <si>
+    <t>KETS-SIAL-CRAY</t>
+  </si>
+  <si>
+    <t>SKAT-YOUK-WANS</t>
+  </si>
+  <si>
+    <t>EVEN-TISG-OING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEK-WEEK-WEEK </t>
+  </si>
+  <si>
+    <t>BRIV-BLAC-KPIT</t>
+  </si>
+  <si>
+    <t>EPIC-JAYM-ER!!</t>
+  </si>
+  <si>
+    <t>VOLS-LIFE-DURO</t>
+  </si>
+  <si>
+    <t>DOLLYFRIENDS</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE54</t>
+  </si>
+  <si>
+    <t>TUGS-NEST-HASS</t>
+  </si>
+  <si>
+    <t>HEME-KAVA-SKER</t>
+  </si>
+  <si>
+    <t>SQJA-MUWX-SPUN-PGVS</t>
+  </si>
+  <si>
+    <t>SEVE-NTYT-IMES</t>
+  </si>
+  <si>
+    <t>REFS-OOTS-SNED</t>
+  </si>
+  <si>
+    <t>HALL-RHEA-THEY</t>
+  </si>
+  <si>
+    <t>TREGRUMSTACK</t>
+  </si>
+  <si>
+    <t>RAWM-AGIC-TIME</t>
+  </si>
+  <si>
+    <t>DROP-HAFT-ORES</t>
+  </si>
+  <si>
+    <t>AFOR-MOFD-READ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TQIS-SOTC-MCSE </t>
+  </si>
+  <si>
+    <t>CUTE-SIBR-IEX!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIRI-JURA-TINK </t>
+  </si>
+  <si>
+    <t>TYPP-TREF-YEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORM-ATIO-NE55 </t>
+  </si>
+  <si>
+    <t>NITEMARECLAD</t>
+  </si>
+  <si>
+    <t>DNDM-OVIE-FUN!</t>
+  </si>
+  <si>
+    <t>HEAT-WAVE-BAD!</t>
+  </si>
+  <si>
+    <t>YIPS-FOLD-MALT</t>
+  </si>
+  <si>
+    <t>YOUT-UBES-AIGE</t>
+  </si>
+  <si>
+    <t>PAAA-AANC-AKES</t>
+  </si>
+  <si>
+    <t>SLAY-THEM-IMIC</t>
+  </si>
+  <si>
+    <t>UGLY-GOAS-LYRE</t>
+  </si>
+  <si>
+    <t>FRUG-DRAY-USES</t>
+  </si>
+  <si>
+    <t>ANEW-CODE-HERE</t>
+  </si>
+  <si>
+    <t>2022-CHAM-PION-SPT2</t>
+  </si>
+  <si>
+    <t>2022-CHAM-PION-SPT1</t>
+  </si>
+  <si>
+    <t>LEZZ-YELK-YWIS</t>
+  </si>
+  <si>
+    <t>FOUN-DERS-DND!</t>
+  </si>
+  <si>
+    <t>ERNS-DELI-SPAZ</t>
+  </si>
+  <si>
+    <t>PEAK-MOOR-GAUP</t>
+  </si>
+  <si>
+    <t>ODAH-REEK-PARK</t>
+  </si>
+  <si>
+    <t>SOCS-MUCK-BASE</t>
+  </si>
+  <si>
+    <t>FAME-YESK-TARP</t>
+  </si>
+  <si>
+    <t>UPDO-JOUK-TZKE</t>
+  </si>
+  <si>
+    <t>LAVS-TAGS-IBIS</t>
+  </si>
+  <si>
+    <t>ALLB-YMYS-ELF!</t>
+  </si>
+  <si>
+    <t>QRZS-MERE-KXLA</t>
+  </si>
+  <si>
+    <t>SOLO-ORBY-SMIT</t>
+  </si>
+  <si>
+    <t>FINE-JXNQ-LTSV-DQCS</t>
+  </si>
+  <si>
+    <t>BOUN-ZURF-ALBE</t>
+  </si>
+  <si>
+    <t>DALT-BOCK-PYES</t>
+  </si>
+  <si>
+    <t>DNDA-NDAM-OVIE</t>
+  </si>
+  <si>
+    <t>GANE-KOPS-RIAL</t>
+  </si>
+  <si>
+    <t>MOES-DAMP-BRAS</t>
+  </si>
+  <si>
+    <t>WAYO-FTHE-MONK</t>
+  </si>
+  <si>
+    <t>BARK-LICE-BIGA</t>
+  </si>
+  <si>
+    <t>OWLB-EARD-UCKS</t>
+  </si>
+  <si>
+    <t>VARI-ANTD-ROPS</t>
+  </si>
+  <si>
+    <t>JEDI-WEID-SNIB</t>
+  </si>
+  <si>
+    <t>AAHS-MYAL-MILL</t>
+  </si>
+  <si>
+    <t>SZQR-PALS-ACHE</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE56</t>
+  </si>
+  <si>
+    <t>DOTT-IEIS-BACK</t>
+  </si>
+  <si>
+    <t>INTO-THET-OMBS</t>
+  </si>
+  <si>
+    <t>BIMA-MILE-BODY</t>
+  </si>
+  <si>
+    <t>WEDD-INGD-AYDE-ATH!</t>
+  </si>
+  <si>
+    <t>TREA-NTAT-TACK</t>
+  </si>
+  <si>
+    <t>ORTS-BEMA-JAGS</t>
+  </si>
+  <si>
+    <t>KNOP-JISM-NOLE</t>
+  </si>
+  <si>
+    <t>THER-EWIL-LBEA-TEST</t>
+  </si>
+  <si>
+    <t>RAPS-KEEL-NOOB</t>
+  </si>
+  <si>
+    <t>MAGG-MILD-TSAR</t>
+  </si>
+  <si>
+    <t>KILT-TYPE-COSH</t>
+  </si>
+  <si>
+    <t>WORD-BIND-NAAN</t>
+  </si>
+  <si>
+    <t>SING-JATO-FATS</t>
+  </si>
+  <si>
+    <t>JIVE-HOBS-GILT</t>
+  </si>
+  <si>
+    <t>JATO-URBS-OXEN</t>
+  </si>
+  <si>
+    <t>RISE-ANDS-HINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN-TERJ-OY!! </t>
+  </si>
+  <si>
+    <t>SKEL-EVEN-NKAT</t>
+  </si>
+  <si>
+    <t>WHATDIDIMISS</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE57</t>
+  </si>
+  <si>
+    <t>RIOT-TINY-COSY</t>
+  </si>
+  <si>
+    <t>AFQ2-HOPE-BACK</t>
+  </si>
+  <si>
+    <t>SECO-NDTO-LAST</t>
+  </si>
+  <si>
+    <t>CABA-TAIL-DORB</t>
+  </si>
+  <si>
+    <t>KOLO-RALE-RUDE</t>
+  </si>
+  <si>
+    <t>PITA-TRYP-MILL</t>
+  </si>
+  <si>
+    <t>FEAR-DARK-LORD</t>
+  </si>
+  <si>
+    <t>TIPT-FENS-RIFE</t>
+  </si>
+  <si>
+    <t>VORONEEEEEKA</t>
+  </si>
+  <si>
+    <t>RUES-TIGS-PACK</t>
+  </si>
+  <si>
+    <t>GUES-STHE-ROLL</t>
+  </si>
+  <si>
+    <t>GOOD-SKET-CHES</t>
+  </si>
+  <si>
+    <t>ULTI-MATE-FARM</t>
+  </si>
+  <si>
+    <t>RINS-CEAS-KOND</t>
+  </si>
+  <si>
+    <t>BYTE-VASE-CHIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADREADVISAGE </t>
+  </si>
+  <si>
+    <t>FORMATIONE58</t>
+  </si>
+  <si>
+    <t>JUST-SAYN-IKA!</t>
+  </si>
+  <si>
+    <t>QUES-T4CR-OWN!</t>
+  </si>
+  <si>
+    <t>AWPS-EDGE-PVCQ</t>
+  </si>
+  <si>
+    <t>SEAR-CH4C-ROWN</t>
+  </si>
+  <si>
+    <t>BIGF-IVEZ-ERO!</t>
+  </si>
+  <si>
+    <t>DRIZ-ZTRA-NGER</t>
+  </si>
+  <si>
+    <t>INNERCIRCLES</t>
+  </si>
+  <si>
+    <t>HONG-COOT-HALT</t>
+  </si>
+  <si>
+    <t>TREE-TREE-TREE</t>
+  </si>
+  <si>
+    <t>LEVY-FRAY-POPE</t>
+  </si>
+  <si>
+    <t>KABS-DOZE-JOSS</t>
+  </si>
+  <si>
+    <t>DARK-LORD-VORO-NIKA</t>
+  </si>
+  <si>
+    <t>PERE-MAIN-IBIS</t>
+  </si>
+  <si>
+    <t>CHON-DAMP-VRIL</t>
+  </si>
+  <si>
+    <t>PATU-SARD-POMO</t>
+  </si>
+  <si>
+    <t>SETS-LAVA-GILT</t>
+  </si>
+  <si>
+    <t>GREW-PELT-OILY</t>
+  </si>
+  <si>
+    <t>BICE-EMIT-WYCH</t>
+  </si>
+  <si>
+    <t>TREW-LORE-WIVE</t>
+  </si>
+  <si>
+    <t>SUNN-KYND-HERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADE-TURD-DAWK </t>
+  </si>
+  <si>
+    <t>LINO-SATE-VOIP</t>
+  </si>
+  <si>
+    <t>LIES-SWAB-WEER</t>
+  </si>
+  <si>
+    <t>VEEM-USEC-HATS</t>
+  </si>
+  <si>
+    <t>CALC-GUID-ANCE</t>
+  </si>
+  <si>
+    <t>PATR-ONAG-EVEE</t>
+  </si>
+  <si>
+    <t>TOST-POTE-NOUN</t>
+  </si>
+  <si>
+    <t>#THA-NKSS-HAWN</t>
+  </si>
+  <si>
+    <t>AFQS-2BEG-INS!</t>
+  </si>
+  <si>
+    <t>CODE-GOES-HERE</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE59</t>
+  </si>
+  <si>
+    <t>VEGO-HOHS-CARN</t>
+  </si>
+  <si>
+    <t>STOB-ROTS-SAYS</t>
+  </si>
+  <si>
+    <t>FARE-THEE-WELL</t>
+  </si>
+  <si>
+    <t>LOIR-LIMA-SOLI</t>
+  </si>
+  <si>
+    <t>PATH-ATOM-WHAT</t>
+  </si>
+  <si>
+    <t>SURA-MIGS-COOM</t>
+  </si>
+  <si>
+    <t>ROUX-YEAD-GELD</t>
+  </si>
+  <si>
+    <t>SPAC-EKOB-OLDS</t>
+  </si>
+  <si>
+    <t>MITC-HTHE-LICH</t>
+  </si>
+  <si>
+    <t>WELC-OMEK-AT!!</t>
+  </si>
+  <si>
+    <t>VORO-NIKA-ISOP</t>
+  </si>
+  <si>
+    <t>GOSS-SUKS-TENE</t>
+  </si>
+  <si>
+    <t>EGIS-LACE-CAWS</t>
+  </si>
+  <si>
+    <t>DADO-VIES-TEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADA-HUIC-CHAT </t>
+  </si>
+  <si>
+    <t>ABLI-GHTD-RUID</t>
+  </si>
+  <si>
+    <t>SDQD-LBXE-LSKU</t>
+  </si>
+  <si>
+    <t>#EGG-HERO-NSY5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFQE-PISO-DE1! </t>
+  </si>
+  <si>
+    <t>AFAM-ILIA-RDM!</t>
+  </si>
+  <si>
+    <t>BIGF-IFTY-ONE!</t>
+  </si>
+  <si>
+    <t>DREA-DDOM-AIN!</t>
+  </si>
+  <si>
+    <t>PROD-EECH-TODY</t>
+  </si>
+  <si>
+    <t>THEBLUECREW!</t>
+  </si>
+  <si>
+    <t>BUDO-ECAD-CLUE</t>
+  </si>
+  <si>
+    <t>RATI-NMYB-RAIN</t>
+  </si>
+  <si>
+    <t>MYCO-NIDR-ERUN</t>
+  </si>
+  <si>
+    <t>SAUT-GULA-FRIT</t>
+  </si>
+  <si>
+    <t>WIXE-GORA-ZRES</t>
+  </si>
+  <si>
+    <t>TAKA-HYKE-SPUR</t>
+  </si>
+  <si>
+    <t>VOLT-PEGS-TAGS</t>
+  </si>
+  <si>
+    <t>IWON-TGET-BULL-IED!</t>
+  </si>
+  <si>
+    <t>TUND-NAME-PIAN</t>
+  </si>
+  <si>
+    <t>KIRS-PEAG-MENO</t>
+  </si>
+  <si>
+    <t>WOON-FANK-WOOL</t>
+  </si>
+  <si>
+    <t>MASE-SECS-VAIR</t>
+  </si>
+  <si>
+    <t>KILO-JUBE-SELL</t>
+  </si>
+  <si>
+    <t>RIPS-WATE-DINO</t>
+  </si>
+  <si>
+    <t>BILL-KNUT-MERI</t>
+  </si>
+  <si>
+    <t>LAYS-LAST-POSH</t>
+  </si>
+  <si>
+    <t>EVEN-TISO-VER!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAN-KSTA-YLOR </t>
+  </si>
+  <si>
+    <t>IWAN-TMYA-ZAKA</t>
+  </si>
+  <si>
+    <t>TULE-LIND-TALI</t>
+  </si>
+  <si>
+    <t>LATI-ACHA-TDND</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE60</t>
+  </si>
+  <si>
+    <t>DOBTOMORROW!</t>
+  </si>
+  <si>
+    <t>AFQS-2RETURNS</t>
+  </si>
+  <si>
+    <t>ANNO-OGAM-LEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERED-CHUR-KOJI </t>
+  </si>
+  <si>
+    <t>DEAN-PENK-MIME</t>
+  </si>
+  <si>
+    <t>ITSA-ZAKA-TIME</t>
+  </si>
+  <si>
+    <t>ORCE-NDUR-ANCE</t>
+  </si>
+  <si>
+    <t>BRIG-HT&amp;S-HINY</t>
+  </si>
+  <si>
+    <t>B4FI-FTYT-HREE</t>
+  </si>
+  <si>
+    <t>LUKE-CHAT-TIME</t>
+  </si>
+  <si>
+    <t>BEGO-OQPH-CARB</t>
+  </si>
+  <si>
+    <t>60SK-ELET-ONS!</t>
+  </si>
+  <si>
+    <t>AFQS-2EP2-TIME</t>
+  </si>
+  <si>
+    <t>FORM-ATIO-NE61</t>
+  </si>
+  <si>
+    <t>DOBDOBDOBDOB</t>
+  </si>
+  <si>
+    <t>DAUD-HAZE-HIRE</t>
+  </si>
+  <si>
+    <t>DELE-RUCS-DEFO</t>
+  </si>
+  <si>
+    <t>NEPS-LENS-EAST</t>
+  </si>
+  <si>
+    <t>RAMP-EVOE-ZHOS</t>
+  </si>
+  <si>
+    <t>BEDU-FARS-RAIS</t>
+  </si>
+  <si>
+    <t>BRIG-HTSW-ORDS-FIVE</t>
+  </si>
+  <si>
+    <t>LOBI-TUZZ-MERE</t>
+  </si>
+  <si>
+    <t>OWRE-VOLE-NOSY</t>
+  </si>
+  <si>
+    <t>MONO-SHAN-NEVE</t>
+  </si>
+  <si>
+    <t>RUSA-ABAC-LAVE</t>
+  </si>
+  <si>
+    <t>RERU-NPAI-NTS!</t>
+  </si>
+  <si>
+    <t>OURM-ODSR-OCK!</t>
+  </si>
+  <si>
+    <t>THEBLUECREW2</t>
+  </si>
+  <si>
+    <t>MAKI-CARK-CRIT</t>
+  </si>
+  <si>
+    <t>FAST-WIGS-SHOW</t>
+  </si>
+  <si>
+    <t>KOEL-DARK-AGAS</t>
+  </si>
+  <si>
+    <t>SELI-4ACA-USE!</t>
+  </si>
+  <si>
+    <t>UPBY-SIMS-LEGS</t>
+  </si>
+  <si>
+    <t>HURL-GEAR-ENVY</t>
+  </si>
+  <si>
+    <t>FLAX-TELA-PLEA</t>
+  </si>
+  <si>
+    <t>SUNB-URNS-HURT</t>
+  </si>
+  <si>
+    <t>RECK-DUPS-GOSH</t>
+  </si>
+  <si>
+    <t>IDLE-DOB!-CHAT</t>
+  </si>
+  <si>
+    <t>ENDO-FAUG-UST!</t>
+  </si>
+  <si>
+    <t>YAYLUKEMCKAY</t>
+  </si>
+  <si>
+    <t>AMAR-VELO-USDE-MON!</t>
+  </si>
+  <si>
+    <t>BUSK-DARG-EMUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIENDSTACKS </t>
+  </si>
+  <si>
+    <t>OKAYIFIXEDIT</t>
+  </si>
+  <si>
+    <t>FOUD-MUON-CROW</t>
+  </si>
+  <si>
+    <t>FIEF-NAAN-BANT</t>
+  </si>
+  <si>
+    <t>NEWG-AMEP-LUS!</t>
+  </si>
+  <si>
+    <t>CUES-EORL-FEDS</t>
+  </si>
+  <si>
+    <t>NUBS-EILD-NYES</t>
+  </si>
+  <si>
+    <t>GAME-WEEK-2022</t>
+  </si>
+  <si>
+    <t>DISS-COLY-WYCH</t>
+  </si>
+  <si>
+    <t>BEHO-LD!!-IRIS</t>
+  </si>
+  <si>
+    <t>PANP-ACKC-AKES</t>
+  </si>
+  <si>
+    <t>PACK-PANC-AKES</t>
+  </si>
+  <si>
+    <t>BADS-KELE-TONS</t>
+  </si>
+  <si>
+    <t>YARR-BAKE-VIER</t>
+  </si>
+  <si>
+    <t>YEAR-PLUS-ONE!</t>
+  </si>
+  <si>
+    <t>IDLE-PEST-CHAT</t>
+  </si>
+  <si>
+    <t>EP3F-AMIL-IARS</t>
+  </si>
+  <si>
+    <t>CHAM-PSOF-LORE</t>
+  </si>
+  <si>
+    <t>TOKOBOLDLYGO</t>
+  </si>
+  <si>
+    <t>OOPSALLBOLDS</t>
+  </si>
+  <si>
+    <t>UNCO-FARL-VIRE</t>
+  </si>
+  <si>
+    <t>TERN-NAIN-POTS</t>
+  </si>
+  <si>
+    <t>AGOG-BOAK-POWS</t>
+  </si>
+  <si>
+    <t>KNEW-UPON-VAUT</t>
+  </si>
+  <si>
+    <t>RETU-RNSE-NDER</t>
+  </si>
+  <si>
+    <t>HAVI-STOR-IES!</t>
+  </si>
+  <si>
+    <t>BIRK-KIPE-UPON</t>
+  </si>
+  <si>
+    <t>CLAM-BISK-ZEES</t>
+  </si>
+  <si>
+    <t>VECN-ABAL-LAD!</t>
+  </si>
+  <si>
+    <t>DOAB-AILS-TOMO</t>
+  </si>
+  <si>
+    <t>NOIR-HECH-TICS</t>
+  </si>
+  <si>
+    <t>KOBO-LDSI-NSPA-CE!!</t>
+  </si>
+  <si>
+    <t>DARG-NEST-DUED</t>
+  </si>
+  <si>
+    <t>WAWS-SHET-CORM</t>
+  </si>
+  <si>
+    <t>GROG-ENES-PYOT</t>
+  </si>
+  <si>
+    <t>FUMY-HILL-PROA</t>
+  </si>
+  <si>
+    <t>VIAS-TEAK-RUNG</t>
+  </si>
+  <si>
+    <t>LEFT-EALE-POTE</t>
+  </si>
+  <si>
+    <t>VECN-ADND-LIVE</t>
+  </si>
+  <si>
+    <t>HAPP-Y5TH-YALL</t>
+  </si>
+  <si>
+    <t>MAYV-ECNA-LIVE</t>
+  </si>
+  <si>
+    <t>VECN-ALIV-ES!!</t>
+  </si>
+  <si>
+    <t>COOM-WHET-AGMA</t>
+  </si>
+  <si>
+    <t>ATOP-DATE-AGAS</t>
+  </si>
+  <si>
+    <t>VASE-APPS-MUZZ</t>
+  </si>
+  <si>
+    <t>PARR-NABK-INBY</t>
+  </si>
+  <si>
+    <t>LAST-REFU-GE!!</t>
+  </si>
+  <si>
+    <t>BLAC-KROS-EBAL-LAD!</t>
+  </si>
+  <si>
+    <t>ATOK-ROWT-ALAP</t>
+  </si>
+  <si>
+    <t>AREYOUREADY!</t>
+  </si>
+  <si>
+    <t>PISE-MEZE-OSSA</t>
+  </si>
+  <si>
+    <t>ACNE-SUNI-DISK</t>
+  </si>
+  <si>
+    <t>HEYL-OOKA-CODE</t>
+  </si>
+  <si>
+    <t>TABU-ERAS-TAXI</t>
+  </si>
+  <si>
+    <t>5YEA-RSOF-IRIS</t>
+  </si>
+  <si>
+    <t>SURP-RISE-NGP!</t>
+  </si>
+  <si>
+    <t>#THE-BLUE-CREW</t>
+  </si>
+  <si>
+    <t>OBOE-STAP-JIBB</t>
+  </si>
+  <si>
+    <t>250M-ARSS-HOWS</t>
+  </si>
+  <si>
+    <t>ANNI-VERS-ARY5</t>
+  </si>
+  <si>
+    <t>KOBO-LDPA-CKS!</t>
+  </si>
+  <si>
+    <t>5THA-NNIV-ERSA-RY!!</t>
+  </si>
+  <si>
+    <t>MARS-SHOW-250!</t>
+  </si>
+  <si>
+    <t>ONES-CUED-EAUS</t>
+  </si>
+  <si>
+    <t>VETO-TONE-METH</t>
+  </si>
+  <si>
+    <t>ADDS-OUTS-RAIT</t>
+  </si>
+  <si>
+    <t>5THS-KETC-HING</t>
+  </si>
+  <si>
+    <t>COLL-PATU-OBIT</t>
+  </si>
+  <si>
+    <t>BIGS-VERD-TALC</t>
+  </si>
+  <si>
+    <t>YAWS-DOUN-WEED</t>
+  </si>
+  <si>
+    <t>BAKE-LENS-OAFS</t>
+  </si>
+  <si>
+    <t>SNAG-ALTS-RAGU</t>
+  </si>
+  <si>
+    <t>VILE-DARK-NESS</t>
+  </si>
+  <si>
+    <t>BIKE-YOCK-DOGE</t>
+  </si>
+  <si>
+    <t>IMMY-JEEP-META</t>
+  </si>
+  <si>
+    <t>LEIR-MAKO-RESH</t>
+  </si>
+  <si>
+    <t>DEYS-DOTH-KAED</t>
+  </si>
+  <si>
+    <t>DEFO-ANCE-VINE</t>
+  </si>
+  <si>
+    <t>DEET-CADI-PACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME-FORT-IMEG-ATE! </t>
+  </si>
+  <si>
+    <t>FALL-FALL-FALL</t>
+  </si>
+  <si>
+    <t>BOSK-KAVA-AQUA</t>
+  </si>
+  <si>
+    <t>CHRI-SDUP-UIS!</t>
+  </si>
+  <si>
+    <t>TAKETHISSCOTTY!!</t>
+  </si>
+  <si>
+    <t>IBEX-MAIM-WEAR</t>
+  </si>
+  <si>
+    <t>WEEKLYPARTY!</t>
+  </si>
+  <si>
+    <t>ICPV-ECNA-LIVE</t>
+  </si>
+  <si>
+    <t>ITSA-WEEK-LYPA-RTY!</t>
+  </si>
+  <si>
+    <t>NAPA-LIFE-CUIT</t>
+  </si>
+  <si>
+    <t>HYPE-TRAI-NYAY</t>
+  </si>
+  <si>
+    <t>SEAS-ONON-EYAY</t>
+  </si>
+  <si>
+    <t>NORK-LUNA-DZNQ</t>
+  </si>
+  <si>
+    <t>#SPELLJAMMIN</t>
+  </si>
+  <si>
+    <t>KIND-BUMF-GEAR</t>
+  </si>
+  <si>
+    <t>SEAS-ONSG-RTNS</t>
+  </si>
+  <si>
+    <t>GALE-SEAH-ORSE</t>
+  </si>
+  <si>
+    <t>AEROISISTHEWAY!!</t>
+  </si>
+  <si>
+    <t>TIMEFORSEASONS!!</t>
+  </si>
+  <si>
+    <t>NEWAEROISYAY</t>
+  </si>
+  <si>
+    <t>DRAY-WEFT-FIBS</t>
+  </si>
+  <si>
+    <t>BLEE-HASP-MANE</t>
+  </si>
+  <si>
+    <t>JESS-EPAR-TTWO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOITSABIGDAY </t>
+  </si>
+  <si>
+    <t>IRIS-TRAI-LER!</t>
+  </si>
+  <si>
+    <t>TIAR-SUNG-PILE</t>
+  </si>
+  <si>
+    <t>SEAS-ONBU-FFS!</t>
+  </si>
+  <si>
+    <t>SEAS-ONST-IME!</t>
+  </si>
+  <si>
+    <t>BIRD-IELU-CIUS</t>
+  </si>
+  <si>
+    <t>PAPE-OVEL-GRAM</t>
+  </si>
+  <si>
+    <t>ALEE-ENDS-FETT</t>
+  </si>
+  <si>
+    <t>GLEN-JEAT-COLL</t>
+  </si>
+  <si>
+    <t>FOGY-MILD-NONE</t>
+  </si>
+  <si>
+    <t>NOTJ-USTW-EEKE-NDS!</t>
+  </si>
+  <si>
+    <t>MEAN-INGL-IFE!</t>
+  </si>
+  <si>
+    <t>FVDO-PNRE-KZXS</t>
+  </si>
+  <si>
+    <t>LUMA-LOGS-BAFT</t>
+  </si>
+  <si>
+    <t>VALE-RENY-FZXW</t>
+  </si>
+  <si>
+    <t>YETI-LOCI-DDXZ</t>
+  </si>
+  <si>
+    <t>LEVY-MIPS-SCUL</t>
+  </si>
+  <si>
+    <t>MARK-CUIT-TECS</t>
+  </si>
+  <si>
+    <t>THUD-YABA-NUKE</t>
+  </si>
+  <si>
+    <t>S1HE-ROES-OFAE-ROIS</t>
+  </si>
+  <si>
+    <t>TART-GART-TYER</t>
+  </si>
+  <si>
+    <t>HAVE-GAPE-SURD</t>
+  </si>
+  <si>
+    <t>SQDS-WITE-PROG</t>
+  </si>
+  <si>
+    <t>MOBY-GENT-GREX</t>
+  </si>
+  <si>
+    <t>CANS-SNAP-PLEW</t>
+  </si>
+  <si>
+    <t>FIAT-SETA-ROMP</t>
+  </si>
+  <si>
+    <t>GRID-BOXY-DIDO</t>
+  </si>
+  <si>
+    <t>SILL-BOLT-CURT</t>
+  </si>
+  <si>
+    <t>CAKE-LYRA-DOWL</t>
+  </si>
+  <si>
+    <t>SCOT-TYSH-IELD-THIS</t>
+  </si>
+  <si>
+    <t>MODS-BAAS-OLES</t>
+  </si>
+  <si>
+    <t>TOOL-AFAR-LOCI</t>
+  </si>
+  <si>
+    <t>AEROISVSTOMB</t>
+  </si>
+  <si>
+    <t>savesavesave</t>
+  </si>
+  <si>
+    <t>TARN-ODDS-HATE</t>
+  </si>
+  <si>
+    <t>PICK-MYCH-AMP!</t>
+  </si>
+  <si>
+    <t>CHAT-WITH-EMME</t>
+  </si>
+  <si>
+    <t>WAIL-GLEE-YOKE-TELD</t>
+  </si>
+  <si>
+    <t>TYDE-THUS-BLOT</t>
+  </si>
+  <si>
+    <t>TIVY-SHEW-STEN</t>
+  </si>
+  <si>
+    <t>HISE-RVER-LOAD</t>
+  </si>
+  <si>
+    <t>!KEL-LIBU-TLER</t>
+  </si>
+  <si>
+    <t>COMMUNITYQ&amp;A</t>
+  </si>
+  <si>
+    <t>SAVE-THEF-ORMS</t>
+  </si>
+  <si>
+    <t>EVEN-TNEX-TWED</t>
+  </si>
+  <si>
+    <t>AITS-DASH-CARP</t>
+  </si>
+  <si>
+    <t>RIPP-KAED-MINA</t>
+  </si>
+  <si>
+    <t>MUNT-WAGE-DUNT</t>
+  </si>
+  <si>
+    <t>SAME-HULE-OPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIXT-YART-YEAH </t>
+  </si>
+  <si>
+    <t>WHOS-AGOO-DBOY</t>
+  </si>
+  <si>
+    <t>CUTE-PUPP-YALE-RT!!</t>
+  </si>
+  <si>
+    <t>SEP21BADEEYA</t>
+  </si>
+  <si>
+    <t>OAKS-GADS-TAHA</t>
+  </si>
+  <si>
+    <t>COLA-ONER-ANCE</t>
+  </si>
+  <si>
+    <t>GZUS-AWFY-HPIR-WOVK</t>
+  </si>
+  <si>
+    <t>SPLI-TTHE-NGP!</t>
+  </si>
+  <si>
+    <t>BEEP-BRUX-NUMB</t>
+  </si>
+  <si>
+    <t>NEWE-VENT-SOON</t>
+  </si>
+  <si>
+    <t>ONWARD2YEAR6</t>
+  </si>
+  <si>
+    <t>WATE-RDEE-PJOU-RNEY</t>
+  </si>
+  <si>
+    <t>JEEP-FISC-NAVE</t>
+  </si>
+  <si>
+    <t>SECONDBETTIS</t>
+  </si>
+  <si>
+    <t>REVS-SUNG-FEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SICK-QUEY-NAIF </t>
+  </si>
+  <si>
+    <t>TIME-GATE-NUM3</t>
+  </si>
+  <si>
+    <t>AKES-RULY-LOKE</t>
+  </si>
+  <si>
+    <t>WEIL-SOPH-VIAS</t>
+  </si>
+  <si>
+    <t>KYAK-SQMZ-RUTH</t>
+  </si>
+  <si>
+    <t>HOTE-JUKE-FOPS</t>
+  </si>
+  <si>
+    <t>BADE-BORK-ROIL</t>
+  </si>
+  <si>
+    <t>CLEF-HOGH-SOUT</t>
+  </si>
+  <si>
+    <t>2022-CHAM-PION-SPT3</t>
+  </si>
+  <si>
+    <t>AREA-TOYS-FIRM</t>
+  </si>
+  <si>
+    <t>MOSE-BRZQ-DULE</t>
+  </si>
+  <si>
+    <t>JOEY-FORT-GAUP</t>
+  </si>
+  <si>
+    <t>IRIS-COMP-LETE</t>
+  </si>
+  <si>
+    <t>SUCH-AGOO-DBOY</t>
+  </si>
+  <si>
+    <t>RETS-QTPP-MORE</t>
+  </si>
+  <si>
+    <t>BOKO-MAXI-PAWS</t>
+  </si>
+  <si>
+    <t>KEEP-DURO-ABBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSAR-DAMP-BYDE </t>
+  </si>
+  <si>
+    <t>NICE-NICE-NICE-NICE</t>
+  </si>
+  <si>
+    <t>DOUT-MUNG-CLEW</t>
+  </si>
+  <si>
+    <t>OMWT-OSTR-AHD!</t>
+  </si>
+  <si>
+    <t>ABSOLUTEBUFF</t>
+  </si>
+  <si>
+    <t>TREA-VORH-OUR!</t>
+  </si>
+  <si>
+    <t>ELFS-DRAT-MOLE</t>
+  </si>
+  <si>
+    <t>DAUD-IGLU-CYSC</t>
+  </si>
+  <si>
+    <t>ONWARDTOVICTORY!</t>
+  </si>
+  <si>
+    <t>FIXI-NYOU-RFRM</t>
+  </si>
+  <si>
+    <t>MIKE-CHAN-NELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROPTHEMINUS </t>
+  </si>
+  <si>
+    <t>BUILDLOCKDAY</t>
+  </si>
+  <si>
+    <t>LATS-GOWD-HZQQ</t>
+  </si>
+  <si>
+    <t>KILD-PURR-PRIG</t>
+  </si>
+  <si>
+    <t>642blueitems</t>
+  </si>
+  <si>
+    <t>NYEH-EHEH-EHEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWLB-EART-IME! </t>
+  </si>
+  <si>
+    <t>FURL-JEFE-TACO</t>
+  </si>
+  <si>
+    <t>SOUK-OBOS-BIND</t>
+  </si>
+  <si>
+    <t>TREY-DIRT-DUAN</t>
+  </si>
+  <si>
+    <t>OATS-RAYA-LANE</t>
+  </si>
+  <si>
+    <t>HIGH-HARV-ESTI-DEY6</t>
+  </si>
+  <si>
+    <t>KETO-YOWS-YOND</t>
+  </si>
+  <si>
+    <t>MORN-PIMP-KAIL</t>
+  </si>
+  <si>
+    <t>GLEG-YAGS-SEKT</t>
+  </si>
+  <si>
+    <t>THEPURPLECOW</t>
+  </si>
+  <si>
+    <t>RELY-KYES-TIPS</t>
+  </si>
+  <si>
+    <t>HAIK-MOAT-PENS</t>
+  </si>
+  <si>
+    <t>SEASON1WEEK4</t>
+  </si>
+  <si>
+    <t>VARI-ANTT-IME!</t>
+  </si>
+  <si>
+    <t>BUOY-HAYS-MIBS</t>
+  </si>
+  <si>
+    <t>THNX-FORS-AVES</t>
+  </si>
+  <si>
+    <t>YAWS-TOOK-BOET</t>
+  </si>
+  <si>
+    <t>BOLA-CUED-GYRO</t>
+  </si>
+  <si>
+    <t>AKES-SAIN-FILE</t>
+  </si>
+  <si>
+    <t>GLUE-GULL-KiLP</t>
+  </si>
+  <si>
+    <t>YQCH-ACQS-PVPW-HWGD</t>
+  </si>
+  <si>
+    <t>PCIS-HAUN-TED!</t>
+  </si>
+  <si>
+    <t>DIAL-1800-FORM-SAVE</t>
+  </si>
+  <si>
+    <t>#THISISACODE</t>
+  </si>
+  <si>
+    <t>ZEAL-IGGS-XQRL</t>
+  </si>
+  <si>
+    <t>AFAM-ILIA-RSYL-GAR!</t>
+  </si>
+  <si>
+    <t>LEAN-ROTS-YMPT</t>
+  </si>
+  <si>
+    <t>BACK-FROM-GONE</t>
+  </si>
+  <si>
+    <t>MOND-AYST-ART!</t>
+  </si>
+  <si>
+    <t>COWL-CAPO-XYST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGBE-RTIS-HERE </t>
+  </si>
+  <si>
+    <t>TATT-KOKA-TOIT</t>
+  </si>
+  <si>
+    <t>COSY-SIRE-COLT</t>
+  </si>
+  <si>
+    <t>BODY-BRAT-MICH</t>
+  </si>
+  <si>
+    <t>WYTE-PIPI-JOYS</t>
+  </si>
+  <si>
+    <t>CONS-KOAN-ISLE</t>
+  </si>
+  <si>
+    <t>SORI-EGAD-TOSA</t>
+  </si>
+  <si>
+    <t>BEHO-LD!I-RIS!</t>
+  </si>
+  <si>
+    <t>LAST-PANC-AKES</t>
+  </si>
+  <si>
+    <t>#cobaltcrowd</t>
+  </si>
+  <si>
+    <t>LOGO-RIEQ-DXOS</t>
+  </si>
+  <si>
+    <t>ITSP-RIME-TIME</t>
+  </si>
+  <si>
+    <t>GABE-CHAT-FUN!</t>
+  </si>
+  <si>
+    <t>TORR-JUTS-RIEM</t>
+  </si>
+  <si>
+    <t>OUTS-WILY-PAIN</t>
+  </si>
+  <si>
+    <t>#HIGHSOCIETY</t>
+  </si>
+  <si>
+    <t>CORE-SATE-DDZA</t>
+  </si>
+  <si>
+    <t>HILL-ARED-BAST-RIFT</t>
+  </si>
+  <si>
+    <t>BEAT-UPST-RAHD</t>
+  </si>
+  <si>
+    <t>CLAW-FILM-HAGS</t>
+  </si>
+  <si>
+    <t>RONZ-MINE-OFAY</t>
+  </si>
+  <si>
+    <t>NUSH-OPWH-ODIS</t>
+  </si>
+  <si>
+    <t>QADI-NORI-CANY</t>
+  </si>
+  <si>
+    <t>AFAMILIARGOODBYE</t>
+  </si>
+  <si>
+    <t>DNDJ-ORDA-NLEA</t>
+  </si>
+  <si>
+    <t>LIFEUNIVERSE</t>
+  </si>
+  <si>
+    <t>DICT-ZEPS-BYTE</t>
+  </si>
+  <si>
+    <t>BAIL-NOON-SENS</t>
+  </si>
+  <si>
+    <t>DEVS-YIRD-HISH</t>
+  </si>
+  <si>
+    <t>CAMP-KINS-FIFE</t>
+  </si>
+  <si>
+    <t>DREE-RINS-NEST</t>
+  </si>
+  <si>
+    <t>PENU-LTIM-ATE!</t>
+  </si>
+  <si>
+    <t>SPET-COOF-COCH</t>
+  </si>
+  <si>
+    <t>FEET-MALI-AWEE</t>
+  </si>
+  <si>
+    <t>LADS-LADS-LADS</t>
+  </si>
+  <si>
+    <t>AGER-CHAI-FAIL</t>
+  </si>
+  <si>
+    <t>SWOT-FORD-NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIST-ALEC-SEAN </t>
+  </si>
+  <si>
+    <t>REDS-BIGA-OGAM</t>
+  </si>
+  <si>
+    <t>WEPT-FINI-AERY</t>
+  </si>
+  <si>
+    <t>IDLE-GABE-CHAT</t>
+  </si>
+  <si>
+    <t>SAVE-THET-EAMS</t>
+  </si>
+  <si>
+    <t>NOST-RAHD-HERE</t>
+  </si>
+  <si>
+    <t>FARREALMTIME</t>
+  </si>
+  <si>
+    <t>TWIS-TAXE-BEAK</t>
+  </si>
+  <si>
+    <t>FULLOFCLOWNS</t>
+  </si>
+  <si>
+    <t>SAVE-FORM-SAVE</t>
+  </si>
+  <si>
+    <t>REDD-ITQA-200!</t>
+  </si>
+  <si>
+    <t>CODE-WORK-PLS!</t>
+  </si>
+  <si>
+    <t>MUZZ-NALA-TANG</t>
+  </si>
+  <si>
+    <t>CHUBBYBUNNY!</t>
+  </si>
+  <si>
+    <t>STIL-NOTP-RIME</t>
+  </si>
+  <si>
+    <t>MOYL-SWOB-CUBE</t>
+  </si>
+  <si>
+    <t>GUPS-FANG-MILL</t>
+  </si>
+  <si>
+    <t>KILO-OKRA-FRAY</t>
+  </si>
+  <si>
+    <t>HITS-BLAB-JIGS</t>
+  </si>
+  <si>
+    <t>PUFFINSTIRGE</t>
+  </si>
+  <si>
+    <t>YEGG-HINS-ARCS</t>
+  </si>
+  <si>
+    <t>TOWT-AIGA-GALS</t>
+  </si>
+  <si>
+    <t>GOOD-BYEN-ORML</t>
+  </si>
+  <si>
+    <t>TONY-DOTE-SIAL</t>
+  </si>
+  <si>
+    <t>TAKI-FONT-TEMP</t>
+  </si>
+  <si>
+    <t>BOKO-RIYH-SWAN-CVTE</t>
+  </si>
+  <si>
+    <t>SOMA-NYLI-ES!!</t>
+  </si>
+  <si>
+    <t>CECA-BOLA-EMOS</t>
+  </si>
+  <si>
+    <t>WHAT-ISAC-DOE!</t>
+  </si>
+  <si>
+    <t>LIARNITETMRW</t>
+  </si>
+  <si>
+    <t>AFQS-2EP8-TIME</t>
+  </si>
+  <si>
+    <t>EPIS-ODE1-ICP4-CODE</t>
+  </si>
+  <si>
+    <t>SEAS-ONST-URN!</t>
+  </si>
+  <si>
+    <t>NIGH-TOF-LIES!</t>
+  </si>
+  <si>
+    <t>HOUR-KIPS-RUGA</t>
+  </si>
+  <si>
+    <t>MOLT-ALAE-OMOV</t>
+  </si>
+  <si>
+    <t>ERGO-YUCA-LEPT</t>
+  </si>
+  <si>
+    <t>GIZZ-GOWF-DIYA</t>
+  </si>
+  <si>
+    <t>STUN-CLAN-TROY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGS-NUNS-YONT </t>
+  </si>
+  <si>
+    <t>LIPS-WENA-MOOL</t>
+  </si>
+  <si>
+    <t>TINA-TRIG-CUIF</t>
+  </si>
+  <si>
+    <t>HUNG-RYHU-NGRY</t>
+  </si>
+  <si>
+    <t>ROAD-EDDO-TOFU</t>
+  </si>
+  <si>
+    <t>PAUA-LOBO-RSSZ</t>
+  </si>
+  <si>
+    <t>NAMS-ASAR-WHIN</t>
+  </si>
+  <si>
+    <t>JABB-ERWO-CKS!</t>
+  </si>
+  <si>
+    <t>BERYLBRIGADE</t>
+  </si>
+  <si>
+    <t>DIDY-OUMI-SSME</t>
+  </si>
+  <si>
+    <t>FUZP-LIND-DAZE</t>
+  </si>
+  <si>
+    <t>ELEC-TRUM-4YOU</t>
+  </si>
+  <si>
+    <t>EXTRA!EXTRA!</t>
+  </si>
+  <si>
+    <t>IDLE-OCT1-3EP!</t>
+  </si>
+  <si>
+    <t>KENT-SAYS-VIRG-IL!!</t>
+  </si>
+  <si>
+    <t>CHAT-WITH-KENT</t>
+  </si>
+  <si>
+    <t>NowItsPrime!</t>
+  </si>
+  <si>
+    <t>HXOS-HJMS-SPAN</t>
+  </si>
+  <si>
+    <t>KYBO-PARA-AVAS</t>
+  </si>
+  <si>
+    <t>DJARTSDAVID!</t>
+  </si>
+  <si>
+    <t>ITSF-ORTY-FOUR</t>
+  </si>
+  <si>
+    <t>WHAT-STHE-PLAN</t>
+  </si>
+  <si>
+    <t>CHOW-KEEN-JAMB</t>
+  </si>
+  <si>
+    <t>COFT-SHEW-FLAP</t>
+  </si>
+  <si>
+    <t>BOGY-LIND-KHAN</t>
+  </si>
+  <si>
+    <t>VASE-UNIT-GRRL</t>
+  </si>
+  <si>
+    <t>DRUG-SERS-MATE</t>
+  </si>
+  <si>
+    <t>APTS-SIAL-KAMA</t>
+  </si>
+  <si>
+    <t>CANN-RYAL-SEEM</t>
+  </si>
+  <si>
+    <t>BLED-GOEY-LAKY</t>
+  </si>
+  <si>
+    <t>KERO-CWMS-GOTH</t>
+  </si>
+  <si>
+    <t>ASUP-EREX-TRAC-ODE!</t>
+  </si>
+  <si>
+    <t>DECO-BOXY-WADY</t>
+  </si>
+  <si>
+    <t>BUBU-TIKI-FOXY</t>
+  </si>
+  <si>
+    <t>GLAD-SLEY-HZZZ</t>
+  </si>
+  <si>
+    <t>GLOW-POMS-ERGS</t>
+  </si>
+  <si>
+    <t>YUMC-ANDY-CORN</t>
+  </si>
+  <si>
+    <t>VOXQ-DZLT-CYPK</t>
+  </si>
+  <si>
+    <t>HONK-FORD-UJQS</t>
+  </si>
+  <si>
+    <t>#WAF-FLEE-VIL#</t>
+  </si>
+  <si>
+    <t>TOGA-ROMP-SHAT</t>
+  </si>
+  <si>
+    <t>SPEL-LJAM-MERS-TRIX</t>
+  </si>
+  <si>
+    <t>POTE-NTRI-VALS</t>
+  </si>
+  <si>
+    <t>ITSR-IVAL-KENT</t>
+  </si>
+  <si>
+    <t>GEMSFARMBEST</t>
+  </si>
+  <si>
+    <t>HAULRAFFCLAN</t>
+  </si>
+  <si>
+    <t>GNAW-BAST-WADT</t>
+  </si>
+  <si>
+    <t>COST-UMEC-REAT-URES</t>
+  </si>
+  <si>
+    <t>THEWAVESOFSORROW</t>
+  </si>
+  <si>
+    <t>BOOM-ASKE-DMAN</t>
+  </si>
+  <si>
+    <t>SOLO-FORM-SAVE</t>
+  </si>
+  <si>
+    <t>FARO-KIRN-WIRE</t>
+  </si>
+  <si>
+    <t>ARNA-DELT-LOBO</t>
+  </si>
+  <si>
+    <t>CAPA-KURU-MOLA</t>
+  </si>
+  <si>
+    <t>SEAS-COIN-HETH-TOMO</t>
+  </si>
+  <si>
+    <t>FULLYBOOSTED</t>
+  </si>
+  <si>
+    <t>HYPO-YERK-BABA</t>
+  </si>
+  <si>
+    <t>ICP4-FAMI-LIAR</t>
+  </si>
+  <si>
+    <t>LETS-SAVE-FORM</t>
+  </si>
+  <si>
+    <t>#BETTERCARDS</t>
+  </si>
+  <si>
+    <t>LITS-ZINE-ESSE</t>
+  </si>
+  <si>
+    <t>EPIS-ODE2-ICP4-CODE</t>
+  </si>
+  <si>
+    <t>ROBUSTPOISON</t>
+  </si>
+  <si>
+    <t>HIP2-BESQ-UARE</t>
+  </si>
+  <si>
+    <t>KAWA-YMPT-UVEA</t>
+  </si>
+  <si>
+    <t>ITSA-SPIC-YSHA-WN!!</t>
+  </si>
+  <si>
+    <t>WISE-DXTZ-PQYA</t>
+  </si>
+  <si>
+    <t>CHAR-ITYR-OPER</t>
+  </si>
+  <si>
+    <t>AHAL-LOWE-ENHA-UNT!</t>
+  </si>
+  <si>
+    <t>YEAD-TASK-LANA</t>
+  </si>
+  <si>
+    <t>SUPERMODRONFLOW!</t>
+  </si>
+  <si>
+    <t>CAPI-QUIT-TWAE</t>
+  </si>
+  <si>
+    <t>CRUD-SELD-POIS</t>
+  </si>
+  <si>
+    <t>DEVO-PINI-ONS!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEL-LJAM-MERA-NNA! </t>
+  </si>
+  <si>
+    <t>ATALKINGBOOK</t>
+  </si>
+  <si>
+    <t>STRI-XINS-PACE</t>
+  </si>
+  <si>
+    <t>GUMS-ILLS-MULL</t>
+  </si>
+  <si>
+    <t>COFFEEMORNIN</t>
+  </si>
+  <si>
+    <t>VERYMEANBOOK</t>
+  </si>
+  <si>
+    <t>PULA-DUNK-DOWF</t>
+  </si>
+  <si>
+    <t>PINS-LIFT-RAZZ</t>
+  </si>
+  <si>
+    <t>NOVS-KETC-HY!!</t>
+  </si>
+  <si>
+    <t>DINOSARECOOL</t>
+  </si>
+  <si>
+    <t>TUSH-WYNN-OPES</t>
+  </si>
+  <si>
+    <t>NOMO-RESP-OOKY</t>
+  </si>
+  <si>
+    <t>AGEN-HOME-FIGO</t>
+  </si>
+  <si>
+    <t>RAIN-YDAY-OUT!</t>
+  </si>
+  <si>
+    <t>KARN-VASA-HELE</t>
+  </si>
+  <si>
+    <t>STUN-LADS-JUTE</t>
+  </si>
+  <si>
+    <t>GLAD-RIFE-EAST-TOTO</t>
+  </si>
+  <si>
+    <t>MALT-OLLA-UVAS</t>
+  </si>
+  <si>
+    <t>ALMOSTCHRISTMAS!</t>
+  </si>
+  <si>
+    <t>INTO-FARR-EALM</t>
+  </si>
+  <si>
+    <t>#DARKLORDRAJ</t>
+  </si>
+  <si>
+    <t>EPIS-ODE3-ICP4-CODE</t>
+  </si>
+  <si>
+    <t>Anita!Anita!</t>
+  </si>
+  <si>
+    <t>WEEK-LYCA-NDYT-IME!</t>
+  </si>
+  <si>
+    <t>SUID-RODS-HAZE</t>
+  </si>
+  <si>
+    <t>SUPE-RSPO-OKY!</t>
+  </si>
+  <si>
+    <t>RYKE-ANAS-NEEM</t>
+  </si>
+  <si>
+    <t>REHS-EYES-NOMA</t>
+  </si>
+  <si>
+    <t>RUBE-HAZE-WHOP</t>
+  </si>
+  <si>
+    <t>DOSS-HUGS-TWAY</t>
+  </si>
+  <si>
+    <t>KIND-HOGG-LILT</t>
+  </si>
+  <si>
+    <t>GAOL-DISK-FRAP</t>
+  </si>
+  <si>
+    <t>YEBO-CINE-AZAN</t>
+  </si>
+  <si>
+    <t>SIDAGIDSLUBE</t>
+  </si>
+  <si>
+    <t>NEED-DOOR-CQDS-ROLF</t>
+  </si>
+  <si>
+    <t>PROMKINOICON</t>
+  </si>
+  <si>
+    <t>CRIM-RAGG-PINY-WOWS</t>
+  </si>
+  <si>
+    <t>ICP4-TIAM-AT!!</t>
+  </si>
+  <si>
+    <t>CORK-CAUL-FEHS</t>
+  </si>
+  <si>
+    <t>FOGYFOGYFOGY</t>
+  </si>
+  <si>
+    <t>TIMEGATEPULL</t>
+  </si>
+  <si>
+    <t>TICE-VIGS-YAFF</t>
+  </si>
+  <si>
+    <t>AVAL-RIMS-CLAM</t>
+  </si>
+  <si>
+    <t>PYRE-SAME-DOVE</t>
+  </si>
+  <si>
+    <t>JOYS-DRAM-DRAM</t>
+  </si>
+  <si>
+    <t>RENT-SLEE-VIAE</t>
+  </si>
+  <si>
+    <t>ATMA-BLEB-RUCK</t>
+  </si>
+  <si>
+    <t>PION-NODE-TROP</t>
+  </si>
+  <si>
+    <t>HUICPOLLTABS</t>
+  </si>
+  <si>
+    <t>gogovoesdied</t>
+  </si>
+  <si>
+    <t>EPIS-ODE6-ICP4-CODE</t>
+  </si>
+  <si>
+    <t>EPIS-ODE5-ICP4-CODE</t>
+  </si>
+  <si>
+    <t>EPIS-ODE4-ICP4-CODE</t>
+  </si>
+  <si>
+    <t>TUNG-EELY-HISH</t>
+  </si>
+  <si>
+    <t>REVI-SITC-AMPA-IGNS</t>
+  </si>
+  <si>
+    <t>LPJA-BRQZ-MKCS</t>
+  </si>
+  <si>
+    <t>RADI-ANTF-INAL</t>
+  </si>
+  <si>
+    <t>OFFL-INEP-ROGR-ESS2</t>
+  </si>
+  <si>
+    <t>JAWS-THAT-BITE</t>
+  </si>
+  <si>
+    <t>VOID-VOID-VOID</t>
+  </si>
+  <si>
+    <t>BLUE-VIPR-TEST</t>
+  </si>
+  <si>
+    <t>GARE-KAKI-CRAW</t>
+  </si>
+  <si>
+    <t>IMAC-COUN-TING-ONIT</t>
+  </si>
+  <si>
+    <t>PASS-MODI-RAYA-LOUR</t>
+  </si>
+  <si>
+    <t>MENT-MIHI-OURN</t>
+  </si>
+  <si>
+    <t>WAIT-REFS-NOYS</t>
+  </si>
+  <si>
+    <t>FARS-SUGH-BANE</t>
+  </si>
+  <si>
+    <t>REKE-QUIT-PEPS</t>
+  </si>
+  <si>
+    <t>TODY-HECH-KUTU</t>
+  </si>
+  <si>
+    <t>TEMS-MAYS-SUID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIFS-WOOT-MIKE </t>
+  </si>
+  <si>
+    <t>DOYS-AWRY-SOAK</t>
+  </si>
+  <si>
+    <t>DEYS-SEAS-MACE</t>
+  </si>
+  <si>
+    <t>PLOW-QGER-KXPN</t>
+  </si>
+  <si>
+    <t>FEAS-TOFT-HEMO-ONY6</t>
+  </si>
+  <si>
+    <t>FANS-AREB-EST!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNLO-CKIN-GVIR-GIL! </t>
+  </si>
+  <si>
+    <t>UNAI-RIMA-QUOD</t>
+  </si>
+  <si>
+    <t>NONI-PREZ-AUKS</t>
+  </si>
+  <si>
+    <t>CLAW-STHA-TCAT-CH!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIRGILBLUCRU </t>
+  </si>
+  <si>
+    <t>WINK-ORRA-CORY</t>
+  </si>
+  <si>
+    <t>Make-Hayj-okes</t>
+  </si>
+  <si>
+    <t>PROS-SERI-NSIG-HTS!</t>
+  </si>
+  <si>
+    <t>VIRG-ILIN-ICP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAPZAPZAPZAP </t>
+  </si>
+  <si>
+    <t>VIRG-ILFO-RMS!</t>
+  </si>
+  <si>
+    <t>FTLC-ONFI-RMED</t>
+  </si>
+  <si>
+    <t>HOSS-ELAN-ROMA</t>
+  </si>
+  <si>
+    <t>HAEN-SLOG-AVES</t>
+  </si>
+  <si>
+    <t>RACY-ROON-RAIL</t>
+  </si>
+  <si>
+    <t>SPAC-ESHR-IMPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GETVIRGILNOW </t>
+  </si>
+  <si>
+    <t>PROD-LINE-ICES</t>
+  </si>
+  <si>
+    <t>EXPL-ORIN-PORT</t>
+  </si>
+  <si>
+    <t>THEBIGBATTLE</t>
   </si>
 </sst>
 </file>
@@ -429,9 +2598,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,10 +2884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
+      <selection activeCell="A828" sqref="A828:A863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +2931,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -767,7 +2939,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -775,7 +2947,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -783,7 +2955,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -791,7 +2963,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -799,7 +2971,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -807,7 +2979,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -815,7 +2987,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -823,7 +2995,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -831,7 +3003,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -839,7 +3011,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -847,7 +3019,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -855,7 +3027,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -863,7 +3035,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -871,7 +3043,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -879,7 +3051,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -887,7 +3059,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -895,7 +3067,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -903,7 +3075,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -911,7 +3083,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -919,7 +3091,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -927,7 +3099,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -935,7 +3107,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -943,7 +3115,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -951,7 +3123,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -959,7 +3131,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -967,7 +3139,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -975,7 +3147,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -983,7 +3155,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -991,7 +3163,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -999,7 +3171,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -1007,7 +3179,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1015,7 +3187,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -1023,7 +3195,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -1031,7 +3203,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -1039,7 +3211,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -1047,7 +3219,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -1055,7 +3227,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -1063,7 +3235,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -1071,7 +3243,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -1079,7 +3251,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -1087,7 +3259,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
@@ -1095,7 +3267,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -1103,7 +3275,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -1111,7 +3283,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -1119,7 +3291,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -1127,7 +3299,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -1135,7 +3307,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -1143,7 +3315,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -1151,7 +3323,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -1159,7 +3331,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -1167,7 +3339,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -1175,7 +3347,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -1183,7 +3355,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -1191,7 +3363,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -1199,7 +3371,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -1207,7 +3379,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -1215,7 +3387,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -1223,7 +3395,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -1231,7 +3403,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -1239,7 +3411,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -1247,7 +3419,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -1255,7 +3427,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -1263,7 +3435,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -1271,7 +3443,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -1279,7 +3451,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -1287,7 +3459,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -1295,7 +3467,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -1303,7 +3475,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -1311,7 +3483,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -1319,7 +3491,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -1327,7 +3499,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -1335,7 +3507,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
@@ -1343,7 +3515,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -1351,7 +3523,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -1359,7 +3531,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -1367,7 +3539,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
@@ -1375,7 +3547,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
@@ -1383,7 +3555,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
@@ -1391,7 +3563,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -1399,7 +3571,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -1407,7 +3579,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -1415,7 +3587,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
@@ -1423,7 +3595,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
@@ -1431,7 +3603,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
@@ -1439,7 +3611,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B90" t="b">
         <v>1</v>
@@ -1447,7 +3619,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -1455,7 +3627,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
@@ -1463,7 +3635,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -1471,7 +3643,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B94" t="b">
         <v>1</v>
@@ -1479,7 +3651,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
@@ -1487,7 +3659,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -1495,7 +3667,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B97" t="b">
         <v>1</v>
@@ -1503,7 +3675,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B98" t="b">
         <v>1</v>
@@ -1511,7 +3683,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B99" t="b">
         <v>1</v>
@@ -1519,7 +3691,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B100" t="b">
         <v>1</v>
@@ -1527,7 +3699,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B101" t="b">
         <v>1</v>
@@ -1535,7 +3707,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B102" t="b">
         <v>1</v>
@@ -1543,7 +3715,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B103" t="b">
         <v>1</v>
@@ -1551,7 +3723,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B104" t="b">
         <v>1</v>
@@ -1559,7 +3731,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B105" t="b">
         <v>1</v>
@@ -1567,7 +3739,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B106" t="b">
         <v>1</v>
@@ -1575,7 +3747,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B107" t="b">
         <v>1</v>
@@ -1583,7 +3755,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B108" t="b">
         <v>1</v>
@@ -1591,7 +3763,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="B109" t="b">
         <v>1</v>
@@ -1599,7 +3771,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B110" t="b">
         <v>1</v>
@@ -1607,7 +3779,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B111" t="b">
         <v>1</v>
@@ -1615,7 +3787,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="B112" t="b">
         <v>1</v>
@@ -1623,7 +3795,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="B113" t="b">
         <v>1</v>
@@ -1631,7 +3803,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B114" t="b">
         <v>1</v>
@@ -1639,7 +3811,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="B115" t="b">
         <v>1</v>
@@ -1647,7 +3819,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B116" t="b">
         <v>1</v>
@@ -1655,7 +3827,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="B117" t="b">
         <v>1</v>
@@ -1663,15 +3835,5975 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>167</v>
+      </c>
+      <c r="B124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>163</v>
+      </c>
+      <c r="B132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>66</v>
+      </c>
+      <c r="B138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>88</v>
+      </c>
+      <c r="B139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>95</v>
+      </c>
+      <c r="B142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>55</v>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>111</v>
+      </c>
+      <c r="B146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>130</v>
+      </c>
+      <c r="B150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>71</v>
+      </c>
+      <c r="B151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>122</v>
+      </c>
+      <c r="B154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>90</v>
+      </c>
+      <c r="B163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>135</v>
+      </c>
+      <c r="B164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>154</v>
+      </c>
+      <c r="B171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>29</v>
+      </c>
+      <c r="B172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>140</v>
+      </c>
+      <c r="B174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>34</v>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>123</v>
+      </c>
+      <c r="B176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>70</v>
       </c>
-      <c r="B118" t="b">
+      <c r="B179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>255</v>
+      </c>
+      <c r="B251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>250</v>
+      </c>
+      <c r="B253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>348</v>
+      </c>
+      <c r="B346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>349</v>
+      </c>
+      <c r="B347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>354</v>
+      </c>
+      <c r="B352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>355</v>
+      </c>
+      <c r="B353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>356</v>
+      </c>
+      <c r="B354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>357</v>
+      </c>
+      <c r="B355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>358</v>
+      </c>
+      <c r="B356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>359</v>
+      </c>
+      <c r="B357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>362</v>
+      </c>
+      <c r="B360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>363</v>
+      </c>
+      <c r="B361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>365</v>
+      </c>
+      <c r="B363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>367</v>
+      </c>
+      <c r="B365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>368</v>
+      </c>
+      <c r="B366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>369</v>
+      </c>
+      <c r="B367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>371</v>
+      </c>
+      <c r="B369" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>374</v>
+      </c>
+      <c r="B372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>375</v>
+      </c>
+      <c r="B373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>377</v>
+      </c>
+      <c r="B374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>378</v>
+      </c>
+      <c r="B375" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>381</v>
+      </c>
+      <c r="B378" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>382</v>
+      </c>
+      <c r="B379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>383</v>
+      </c>
+      <c r="B380" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>386</v>
+      </c>
+      <c r="B383" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>387</v>
+      </c>
+      <c r="B384" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>388</v>
+      </c>
+      <c r="B385" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>389</v>
+      </c>
+      <c r="B386" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>390</v>
+      </c>
+      <c r="B387" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>391</v>
+      </c>
+      <c r="B388" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>392</v>
+      </c>
+      <c r="B389" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>393</v>
+      </c>
+      <c r="B390" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>394</v>
+      </c>
+      <c r="B391" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>395</v>
+      </c>
+      <c r="B392" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>396</v>
+      </c>
+      <c r="B393" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>397</v>
+      </c>
+      <c r="B394" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>376</v>
+      </c>
+      <c r="B395" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>398</v>
+      </c>
+      <c r="B396" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>399</v>
+      </c>
+      <c r="B397" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>400</v>
+      </c>
+      <c r="B398" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>401</v>
+      </c>
+      <c r="B399" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>402</v>
+      </c>
+      <c r="B400" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>403</v>
+      </c>
+      <c r="B401" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>404</v>
+      </c>
+      <c r="B402" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>405</v>
+      </c>
+      <c r="B403" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>406</v>
+      </c>
+      <c r="B404" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>407</v>
+      </c>
+      <c r="B405" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>408</v>
+      </c>
+      <c r="B406" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>409</v>
+      </c>
+      <c r="B407" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>410</v>
+      </c>
+      <c r="B408" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>411</v>
+      </c>
+      <c r="B409" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>412</v>
+      </c>
+      <c r="B410" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>413</v>
+      </c>
+      <c r="B411" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>414</v>
+      </c>
+      <c r="B412" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>415</v>
+      </c>
+      <c r="B413" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>416</v>
+      </c>
+      <c r="B414" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>417</v>
+      </c>
+      <c r="B415" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>418</v>
+      </c>
+      <c r="B416" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>419</v>
+      </c>
+      <c r="B417" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>420</v>
+      </c>
+      <c r="B418" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>421</v>
+      </c>
+      <c r="B419" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>422</v>
+      </c>
+      <c r="B420" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>423</v>
+      </c>
+      <c r="B421" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>424</v>
+      </c>
+      <c r="B422" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>425</v>
+      </c>
+      <c r="B423" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>426</v>
+      </c>
+      <c r="B424" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>427</v>
+      </c>
+      <c r="B425" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>429</v>
+      </c>
+      <c r="B427" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>430</v>
+      </c>
+      <c r="B428" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>431</v>
+      </c>
+      <c r="B429" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>432</v>
+      </c>
+      <c r="B430" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>433</v>
+      </c>
+      <c r="B431" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>434</v>
+      </c>
+      <c r="B432" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>435</v>
+      </c>
+      <c r="B433" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>436</v>
+      </c>
+      <c r="B434" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>437</v>
+      </c>
+      <c r="B435" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>438</v>
+      </c>
+      <c r="B436" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>439</v>
+      </c>
+      <c r="B437" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>440</v>
+      </c>
+      <c r="B438" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>441</v>
+      </c>
+      <c r="B439" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>442</v>
+      </c>
+      <c r="B440" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>443</v>
+      </c>
+      <c r="B441" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>444</v>
+      </c>
+      <c r="B442" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>445</v>
+      </c>
+      <c r="B443" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>446</v>
+      </c>
+      <c r="B444" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>447</v>
+      </c>
+      <c r="B445" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>448</v>
+      </c>
+      <c r="B446" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>449</v>
+      </c>
+      <c r="B447" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>450</v>
+      </c>
+      <c r="B448" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>451</v>
+      </c>
+      <c r="B449" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>452</v>
+      </c>
+      <c r="B450" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>453</v>
+      </c>
+      <c r="B451" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>454</v>
+      </c>
+      <c r="B452" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>455</v>
+      </c>
+      <c r="B453" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>456</v>
+      </c>
+      <c r="B454" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>457</v>
+      </c>
+      <c r="B455" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>458</v>
+      </c>
+      <c r="B456" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>459</v>
+      </c>
+      <c r="B457" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>460</v>
+      </c>
+      <c r="B458" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>461</v>
+      </c>
+      <c r="B459" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>462</v>
+      </c>
+      <c r="B460" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>463</v>
+      </c>
+      <c r="B461" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>464</v>
+      </c>
+      <c r="B462" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>465</v>
+      </c>
+      <c r="B463" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>466</v>
+      </c>
+      <c r="B464" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>467</v>
+      </c>
+      <c r="B465" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>468</v>
+      </c>
+      <c r="B466" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>469</v>
+      </c>
+      <c r="B467" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>470</v>
+      </c>
+      <c r="B468" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>471</v>
+      </c>
+      <c r="B469" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>472</v>
+      </c>
+      <c r="B470" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>473</v>
+      </c>
+      <c r="B471" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>474</v>
+      </c>
+      <c r="B472" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>475</v>
+      </c>
+      <c r="B473" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>476</v>
+      </c>
+      <c r="B474" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>477</v>
+      </c>
+      <c r="B475" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>478</v>
+      </c>
+      <c r="B476" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>479</v>
+      </c>
+      <c r="B477" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>480</v>
+      </c>
+      <c r="B478" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>481</v>
+      </c>
+      <c r="B479" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>482</v>
+      </c>
+      <c r="B480" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>483</v>
+      </c>
+      <c r="B481" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>484</v>
+      </c>
+      <c r="B482" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>485</v>
+      </c>
+      <c r="B483" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>486</v>
+      </c>
+      <c r="B484" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>487</v>
+      </c>
+      <c r="B485" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>488</v>
+      </c>
+      <c r="B486" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>489</v>
+      </c>
+      <c r="B487" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>490</v>
+      </c>
+      <c r="B488" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>491</v>
+      </c>
+      <c r="B489" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>492</v>
+      </c>
+      <c r="B490" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>493</v>
+      </c>
+      <c r="B491" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>494</v>
+      </c>
+      <c r="B492" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>495</v>
+      </c>
+      <c r="B493" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>496</v>
+      </c>
+      <c r="B494" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>497</v>
+      </c>
+      <c r="B495" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>498</v>
+      </c>
+      <c r="B496" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>499</v>
+      </c>
+      <c r="B497" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>500</v>
+      </c>
+      <c r="B498" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>501</v>
+      </c>
+      <c r="B499" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>502</v>
+      </c>
+      <c r="B500" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>503</v>
+      </c>
+      <c r="B501" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>504</v>
+      </c>
+      <c r="B502" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>505</v>
+      </c>
+      <c r="B503" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>506</v>
+      </c>
+      <c r="B504" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>507</v>
+      </c>
+      <c r="B505" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>508</v>
+      </c>
+      <c r="B506" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>509</v>
+      </c>
+      <c r="B507" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>510</v>
+      </c>
+      <c r="B508" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>511</v>
+      </c>
+      <c r="B509" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>512</v>
+      </c>
+      <c r="B510" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>513</v>
+      </c>
+      <c r="B511" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>514</v>
+      </c>
+      <c r="B512" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>515</v>
+      </c>
+      <c r="B513" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>516</v>
+      </c>
+      <c r="B514" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>517</v>
+      </c>
+      <c r="B515" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>518</v>
+      </c>
+      <c r="B516" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>519</v>
+      </c>
+      <c r="B517" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>520</v>
+      </c>
+      <c r="B518" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>521</v>
+      </c>
+      <c r="B519" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>522</v>
+      </c>
+      <c r="B520" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>523</v>
+      </c>
+      <c r="B521" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>524</v>
+      </c>
+      <c r="B522" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>525</v>
+      </c>
+      <c r="B523" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>526</v>
+      </c>
+      <c r="B524" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>527</v>
+      </c>
+      <c r="B525" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>528</v>
+      </c>
+      <c r="B526" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>529</v>
+      </c>
+      <c r="B527" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>530</v>
+      </c>
+      <c r="B528" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>531</v>
+      </c>
+      <c r="B529" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>532</v>
+      </c>
+      <c r="B530" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>533</v>
+      </c>
+      <c r="B531" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>534</v>
+      </c>
+      <c r="B532" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>535</v>
+      </c>
+      <c r="B533" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>536</v>
+      </c>
+      <c r="B534" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>537</v>
+      </c>
+      <c r="B535" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>538</v>
+      </c>
+      <c r="B536" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>539</v>
+      </c>
+      <c r="B537" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>540</v>
+      </c>
+      <c r="B538" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>541</v>
+      </c>
+      <c r="B539" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>542</v>
+      </c>
+      <c r="B540" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>543</v>
+      </c>
+      <c r="B541" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>544</v>
+      </c>
+      <c r="B542" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>545</v>
+      </c>
+      <c r="B543" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>546</v>
+      </c>
+      <c r="B544" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>547</v>
+      </c>
+      <c r="B545" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>548</v>
+      </c>
+      <c r="B546" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>549</v>
+      </c>
+      <c r="B547" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>550</v>
+      </c>
+      <c r="B548" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>551</v>
+      </c>
+      <c r="B549" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>552</v>
+      </c>
+      <c r="B550" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>553</v>
+      </c>
+      <c r="B551" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>554</v>
+      </c>
+      <c r="B552" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>555</v>
+      </c>
+      <c r="B553" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>556</v>
+      </c>
+      <c r="B554" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>557</v>
+      </c>
+      <c r="B555" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>558</v>
+      </c>
+      <c r="B556" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>559</v>
+      </c>
+      <c r="B557" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>560</v>
+      </c>
+      <c r="B558" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>561</v>
+      </c>
+      <c r="B559" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>562</v>
+      </c>
+      <c r="B560" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>563</v>
+      </c>
+      <c r="B561" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>564</v>
+      </c>
+      <c r="B562" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>565</v>
+      </c>
+      <c r="B563" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>566</v>
+      </c>
+      <c r="B564" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>567</v>
+      </c>
+      <c r="B565" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>568</v>
+      </c>
+      <c r="B566" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>569</v>
+      </c>
+      <c r="B567" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>570</v>
+      </c>
+      <c r="B568" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>571</v>
+      </c>
+      <c r="B569" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>572</v>
+      </c>
+      <c r="B570" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>573</v>
+      </c>
+      <c r="B571" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>574</v>
+      </c>
+      <c r="B572" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>575</v>
+      </c>
+      <c r="B573" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>576</v>
+      </c>
+      <c r="B574" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>577</v>
+      </c>
+      <c r="B575" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>578</v>
+      </c>
+      <c r="B576" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>579</v>
+      </c>
+      <c r="B577" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>580</v>
+      </c>
+      <c r="B578" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>581</v>
+      </c>
+      <c r="B579" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>582</v>
+      </c>
+      <c r="B580" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>583</v>
+      </c>
+      <c r="B581" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>584</v>
+      </c>
+      <c r="B582" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>585</v>
+      </c>
+      <c r="B583" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>586</v>
+      </c>
+      <c r="B584" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>587</v>
+      </c>
+      <c r="B585" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>589</v>
+      </c>
+      <c r="B586" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>590</v>
+      </c>
+      <c r="B587" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>591</v>
+      </c>
+      <c r="B588" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>592</v>
+      </c>
+      <c r="B589" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>593</v>
+      </c>
+      <c r="B590" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>594</v>
+      </c>
+      <c r="B591" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>595</v>
+      </c>
+      <c r="B592" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>596</v>
+      </c>
+      <c r="B593" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>597</v>
+      </c>
+      <c r="B594" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>598</v>
+      </c>
+      <c r="B595" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>599</v>
+      </c>
+      <c r="B596" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>600</v>
+      </c>
+      <c r="B597" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>601</v>
+      </c>
+      <c r="B598" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>602</v>
+      </c>
+      <c r="B599" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>603</v>
+      </c>
+      <c r="B600" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>604</v>
+      </c>
+      <c r="B601" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>588</v>
+      </c>
+      <c r="B602" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>605</v>
+      </c>
+      <c r="B603" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>606</v>
+      </c>
+      <c r="B604" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>607</v>
+      </c>
+      <c r="B605" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>608</v>
+      </c>
+      <c r="B606" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>609</v>
+      </c>
+      <c r="B607" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>610</v>
+      </c>
+      <c r="B608" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>611</v>
+      </c>
+      <c r="B609" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>612</v>
+      </c>
+      <c r="B610" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>613</v>
+      </c>
+      <c r="B611" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>614</v>
+      </c>
+      <c r="B612" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>615</v>
+      </c>
+      <c r="B613" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>588</v>
+      </c>
+      <c r="B614" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>616</v>
+      </c>
+      <c r="B615" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>617</v>
+      </c>
+      <c r="B616" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>618</v>
+      </c>
+      <c r="B617" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>619</v>
+      </c>
+      <c r="B618" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>620</v>
+      </c>
+      <c r="B619" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>621</v>
+      </c>
+      <c r="B620" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>622</v>
+      </c>
+      <c r="B621" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>623</v>
+      </c>
+      <c r="B622" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>624</v>
+      </c>
+      <c r="B623" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>625</v>
+      </c>
+      <c r="B624" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>626</v>
+      </c>
+      <c r="B625" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>627</v>
+      </c>
+      <c r="B626" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>628</v>
+      </c>
+      <c r="B627" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>629</v>
+      </c>
+      <c r="B628" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>630</v>
+      </c>
+      <c r="B629" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>631</v>
+      </c>
+      <c r="B630" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>632</v>
+      </c>
+      <c r="B631" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>633</v>
+      </c>
+      <c r="B632" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>634</v>
+      </c>
+      <c r="B633" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>635</v>
+      </c>
+      <c r="B634" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>636</v>
+      </c>
+      <c r="B635" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>637</v>
+      </c>
+      <c r="B636" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>638</v>
+      </c>
+      <c r="B637" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>639</v>
+      </c>
+      <c r="B638" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>640</v>
+      </c>
+      <c r="B639" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>641</v>
+      </c>
+      <c r="B640" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>642</v>
+      </c>
+      <c r="B641" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>643</v>
+      </c>
+      <c r="B642" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>644</v>
+      </c>
+      <c r="B643" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>645</v>
+      </c>
+      <c r="B644" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>646</v>
+      </c>
+      <c r="B645" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>647</v>
+      </c>
+      <c r="B646" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>648</v>
+      </c>
+      <c r="B647" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>649</v>
+      </c>
+      <c r="B648" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>650</v>
+      </c>
+      <c r="B649" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>651</v>
+      </c>
+      <c r="B650" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>652</v>
+      </c>
+      <c r="B651" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>653</v>
+      </c>
+      <c r="B652" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>654</v>
+      </c>
+      <c r="B653" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>655</v>
+      </c>
+      <c r="B654" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>656</v>
+      </c>
+      <c r="B655" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>657</v>
+      </c>
+      <c r="B656" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>658</v>
+      </c>
+      <c r="B657" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>659</v>
+      </c>
+      <c r="B658" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>660</v>
+      </c>
+      <c r="B659" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>661</v>
+      </c>
+      <c r="B660" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>662</v>
+      </c>
+      <c r="B661" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>663</v>
+      </c>
+      <c r="B662" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>685</v>
+      </c>
+      <c r="B663" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>664</v>
+      </c>
+      <c r="B664" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>665</v>
+      </c>
+      <c r="B665" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>666</v>
+      </c>
+      <c r="B666" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>667</v>
+      </c>
+      <c r="B667" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>668</v>
+      </c>
+      <c r="B668" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>669</v>
+      </c>
+      <c r="B669" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>670</v>
+      </c>
+      <c r="B670" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>671</v>
+      </c>
+      <c r="B671" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>672</v>
+      </c>
+      <c r="B672" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>673</v>
+      </c>
+      <c r="B673" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>674</v>
+      </c>
+      <c r="B674" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>675</v>
+      </c>
+      <c r="B675" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>676</v>
+      </c>
+      <c r="B676" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>677</v>
+      </c>
+      <c r="B677" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>678</v>
+      </c>
+      <c r="B678" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>679</v>
+      </c>
+      <c r="B679" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>680</v>
+      </c>
+      <c r="B680" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>681</v>
+      </c>
+      <c r="B681" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>682</v>
+      </c>
+      <c r="B682" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>683</v>
+      </c>
+      <c r="B683" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>636</v>
+      </c>
+      <c r="B684" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>635</v>
+      </c>
+      <c r="B685" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>634</v>
+      </c>
+      <c r="B686" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>633</v>
+      </c>
+      <c r="B687" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>632</v>
+      </c>
+      <c r="B688" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>631</v>
+      </c>
+      <c r="B689" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>630</v>
+      </c>
+      <c r="B690" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>629</v>
+      </c>
+      <c r="B691" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>628</v>
+      </c>
+      <c r="B692" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>627</v>
+      </c>
+      <c r="B693" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>626</v>
+      </c>
+      <c r="B694" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>625</v>
+      </c>
+      <c r="B695" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>624</v>
+      </c>
+      <c r="B696" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>623</v>
+      </c>
+      <c r="B697" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>622</v>
+      </c>
+      <c r="B698" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>621</v>
+      </c>
+      <c r="B699" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>620</v>
+      </c>
+      <c r="B700" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>619</v>
+      </c>
+      <c r="B701" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>618</v>
+      </c>
+      <c r="B702" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>684</v>
+      </c>
+      <c r="B703" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>686</v>
+      </c>
+      <c r="B704" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>687</v>
+      </c>
+      <c r="B705" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>688</v>
+      </c>
+      <c r="B706" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>689</v>
+      </c>
+      <c r="B707" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>690</v>
+      </c>
+      <c r="B708" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>691</v>
+      </c>
+      <c r="B709" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>692</v>
+      </c>
+      <c r="B710" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>693</v>
+      </c>
+      <c r="B711" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>694</v>
+      </c>
+      <c r="B712" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>695</v>
+      </c>
+      <c r="B713" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>696</v>
+      </c>
+      <c r="B714" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>697</v>
+      </c>
+      <c r="B715" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>698</v>
+      </c>
+      <c r="B716" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>699</v>
+      </c>
+      <c r="B717" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>700</v>
+      </c>
+      <c r="B718" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>701</v>
+      </c>
+      <c r="B719" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>702</v>
+      </c>
+      <c r="B720" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>703</v>
+      </c>
+      <c r="B721" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>704</v>
+      </c>
+      <c r="B722" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>705</v>
+      </c>
+      <c r="B723" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>706</v>
+      </c>
+      <c r="B724" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>707</v>
+      </c>
+      <c r="B725" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>708</v>
+      </c>
+      <c r="B726" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>709</v>
+      </c>
+      <c r="B727" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>710</v>
+      </c>
+      <c r="B728" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>711</v>
+      </c>
+      <c r="B729" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>712</v>
+      </c>
+      <c r="B730" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>713</v>
+      </c>
+      <c r="B731" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>714</v>
+      </c>
+      <c r="B732" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>715</v>
+      </c>
+      <c r="B733" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>716</v>
+      </c>
+      <c r="B734" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>717</v>
+      </c>
+      <c r="B735" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>718</v>
+      </c>
+      <c r="B736" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>719</v>
+      </c>
+      <c r="B737" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>737</v>
+      </c>
+      <c r="B738" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>720</v>
+      </c>
+      <c r="B739" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>721</v>
+      </c>
+      <c r="B740" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>722</v>
+      </c>
+      <c r="B741" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>723</v>
+      </c>
+      <c r="B742" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>724</v>
+      </c>
+      <c r="B743" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>725</v>
+      </c>
+      <c r="B744" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>726</v>
+      </c>
+      <c r="B745" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>727</v>
+      </c>
+      <c r="B746" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>728</v>
+      </c>
+      <c r="B747" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>729</v>
+      </c>
+      <c r="B748" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>730</v>
+      </c>
+      <c r="B749" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>731</v>
+      </c>
+      <c r="B750" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>732</v>
+      </c>
+      <c r="B751" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>733</v>
+      </c>
+      <c r="B752" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>734</v>
+      </c>
+      <c r="B753" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>735</v>
+      </c>
+      <c r="B754" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>736</v>
+      </c>
+      <c r="B755" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>738</v>
+      </c>
+      <c r="B756" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>739</v>
+      </c>
+      <c r="B757" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>740</v>
+      </c>
+      <c r="B758" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>741</v>
+      </c>
+      <c r="B759" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>742</v>
+      </c>
+      <c r="B760" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>743</v>
+      </c>
+      <c r="B761" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>744</v>
+      </c>
+      <c r="B762" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>745</v>
+      </c>
+      <c r="B763" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>746</v>
+      </c>
+      <c r="B764" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>747</v>
+      </c>
+      <c r="B765" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>748</v>
+      </c>
+      <c r="B766" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>749</v>
+      </c>
+      <c r="B767" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>750</v>
+      </c>
+      <c r="B768" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>751</v>
+      </c>
+      <c r="B769" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>752</v>
+      </c>
+      <c r="B770" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>753</v>
+      </c>
+      <c r="B771" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>754</v>
+      </c>
+      <c r="B772" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>755</v>
+      </c>
+      <c r="B773" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>756</v>
+      </c>
+      <c r="B774" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>757</v>
+      </c>
+      <c r="B775" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>758</v>
+      </c>
+      <c r="B776" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>759</v>
+      </c>
+      <c r="B777" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>760</v>
+      </c>
+      <c r="B778" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>761</v>
+      </c>
+      <c r="B779" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>762</v>
+      </c>
+      <c r="B780" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>763</v>
+      </c>
+      <c r="B781" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>764</v>
+      </c>
+      <c r="B782" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>765</v>
+      </c>
+      <c r="B783" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>766</v>
+      </c>
+      <c r="B784" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>767</v>
+      </c>
+      <c r="B785" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>768</v>
+      </c>
+      <c r="B786" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>769</v>
+      </c>
+      <c r="B787" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>770</v>
+      </c>
+      <c r="B788" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>771</v>
+      </c>
+      <c r="B789" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>772</v>
+      </c>
+      <c r="B790" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>773</v>
+      </c>
+      <c r="B791" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>774</v>
+      </c>
+      <c r="B792" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>775</v>
+      </c>
+      <c r="B793" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>776</v>
+      </c>
+      <c r="B794" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>777</v>
+      </c>
+      <c r="B795" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>778</v>
+      </c>
+      <c r="B796" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>779</v>
+      </c>
+      <c r="B797" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>780</v>
+      </c>
+      <c r="B798" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>781</v>
+      </c>
+      <c r="B799" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>782</v>
+      </c>
+      <c r="B800" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>783</v>
+      </c>
+      <c r="B801" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>784</v>
+      </c>
+      <c r="B802" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>785</v>
+      </c>
+      <c r="B803" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>786</v>
+      </c>
+      <c r="B804" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>787</v>
+      </c>
+      <c r="B805" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>788</v>
+      </c>
+      <c r="B806" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>789</v>
+      </c>
+      <c r="B807" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>790</v>
+      </c>
+      <c r="B808" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>791</v>
+      </c>
+      <c r="B809" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>792</v>
+      </c>
+      <c r="B810" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>793</v>
+      </c>
+      <c r="B811" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>794</v>
+      </c>
+      <c r="B812" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>795</v>
+      </c>
+      <c r="B813" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>796</v>
+      </c>
+      <c r="B814" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>797</v>
+      </c>
+      <c r="B815" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>798</v>
+      </c>
+      <c r="B816" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>799</v>
+      </c>
+      <c r="B817" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>800</v>
+      </c>
+      <c r="B818" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>801</v>
+      </c>
+      <c r="B819" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>802</v>
+      </c>
+      <c r="B820" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>803</v>
+      </c>
+      <c r="B821" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>804</v>
+      </c>
+      <c r="B822" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>805</v>
+      </c>
+      <c r="B823" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>806</v>
+      </c>
+      <c r="B824" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>807</v>
+      </c>
+      <c r="B825" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>808</v>
+      </c>
+      <c r="B826" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>809</v>
+      </c>
+      <c r="B827" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>810</v>
+      </c>
+      <c r="B828" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>811</v>
+      </c>
+      <c r="B829" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>687</v>
+      </c>
+      <c r="B830" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>812</v>
+      </c>
+      <c r="B831" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>813</v>
+      </c>
+      <c r="B832" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>814</v>
+      </c>
+      <c r="B833" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>815</v>
+      </c>
+      <c r="B834" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>816</v>
+      </c>
+      <c r="B835" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>817</v>
+      </c>
+      <c r="B836" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>818</v>
+      </c>
+      <c r="B837" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>819</v>
+      </c>
+      <c r="B838" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>820</v>
+      </c>
+      <c r="B839" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>821</v>
+      </c>
+      <c r="B840" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>822</v>
+      </c>
+      <c r="B841" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>823</v>
+      </c>
+      <c r="B842" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>824</v>
+      </c>
+      <c r="B843" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>825</v>
+      </c>
+      <c r="B844" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>826</v>
+      </c>
+      <c r="B845" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>827</v>
+      </c>
+      <c r="B846" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>828</v>
+      </c>
+      <c r="B847" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>829</v>
+      </c>
+      <c r="B848" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>830</v>
+      </c>
+      <c r="B849" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>831</v>
+      </c>
+      <c r="B850" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>832</v>
+      </c>
+      <c r="B851" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>833</v>
+      </c>
+      <c r="B852" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>834</v>
+      </c>
+      <c r="B853" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>835</v>
+      </c>
+      <c r="B854" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>836</v>
+      </c>
+      <c r="B855" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>837</v>
+      </c>
+      <c r="B856" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>838</v>
+      </c>
+      <c r="B857" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>839</v>
+      </c>
+      <c r="B858" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>840</v>
+      </c>
+      <c r="B859" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>841</v>
+      </c>
+      <c r="B860" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>842</v>
+      </c>
+      <c r="B861" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>843</v>
+      </c>
+      <c r="B862" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>844</v>
+      </c>
+      <c r="B863" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B118">
-    <sortCondition ref="A2:A118"/>
+  <sortState ref="A2:B180">
+    <sortCondition ref="A2:A180"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Codes.xlsx
+++ b/Data/Codes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="868">
   <si>
     <t>Chest Code</t>
   </si>
@@ -2560,6 +2560,75 @@
   </si>
   <si>
     <t>THEBIGBATTLE</t>
+  </si>
+  <si>
+    <t>shak-adha-nidb-2022</t>
+  </si>
+  <si>
+    <t>OLEO-PEAK-COWY</t>
+  </si>
+  <si>
+    <t>BLUE-CARB-ZILL</t>
+  </si>
+  <si>
+    <t>KOBO-LDSY-AY!!</t>
+  </si>
+  <si>
+    <t>SOPS-HORE-HAPS</t>
+  </si>
+  <si>
+    <t>TUNE-INTM-RROW</t>
+  </si>
+  <si>
+    <t>WALN-UTIN-SPAA-ACE!</t>
+  </si>
+  <si>
+    <t>MARSINOFFICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTR-ALIF-EEVE </t>
+  </si>
+  <si>
+    <t>SPAG-PENS-DEVA</t>
+  </si>
+  <si>
+    <t>SKETCHEXTRA!</t>
+  </si>
+  <si>
+    <t>HOPS-APSE-FOLK</t>
+  </si>
+  <si>
+    <t>FANO-FVIR-GIL!</t>
+  </si>
+  <si>
+    <t>LOOK-MORE-FORM</t>
+  </si>
+  <si>
+    <t>MULL-CLEW-SALE</t>
+  </si>
+  <si>
+    <t>YODH-GOWL-LEST</t>
+  </si>
+  <si>
+    <t>ICES-GAMY-PIKI</t>
+  </si>
+  <si>
+    <t>ALLS-FRAY-SPIF-WALL</t>
+  </si>
+  <si>
+    <t>FEASTONFORMS</t>
+  </si>
+  <si>
+    <t>ULEX-RORT-MASU</t>
+  </si>
+  <si>
+    <t>ONYO-UTUB-EEP5</t>
+  </si>
+  <si>
+    <t>XTRALIFESOON</t>
+  </si>
+  <si>
+    <t>JCMR-AIDT-IME!</t>
   </si>
 </sst>
 </file>
@@ -2884,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D863"/>
+  <dimension ref="A1:D886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="A828" sqref="A828:A863"/>
+    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
+      <selection activeCell="B864" sqref="B864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9798,6 +9867,190 @@
         <v>844</v>
       </c>
       <c r="B863" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>845</v>
+      </c>
+      <c r="B864" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>846</v>
+      </c>
+      <c r="B865" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>847</v>
+      </c>
+      <c r="B866" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>848</v>
+      </c>
+      <c r="B867" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>849</v>
+      </c>
+      <c r="B868" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>850</v>
+      </c>
+      <c r="B869" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>851</v>
+      </c>
+      <c r="B870" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>852</v>
+      </c>
+      <c r="B871" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>853</v>
+      </c>
+      <c r="B872" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>854</v>
+      </c>
+      <c r="B873" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>855</v>
+      </c>
+      <c r="B874" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>856</v>
+      </c>
+      <c r="B875" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>857</v>
+      </c>
+      <c r="B876" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>858</v>
+      </c>
+      <c r="B877" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>859</v>
+      </c>
+      <c r="B878" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>860</v>
+      </c>
+      <c r="B879" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>861</v>
+      </c>
+      <c r="B880" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>862</v>
+      </c>
+      <c r="B881" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>863</v>
+      </c>
+      <c r="B882" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>864</v>
+      </c>
+      <c r="B883" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>865</v>
+      </c>
+      <c r="B884" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>866</v>
+      </c>
+      <c r="B885" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>867</v>
+      </c>
+      <c r="B886" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Data/Codes.xlsx
+++ b/Data/Codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox\Code\Robotic Process Automation\Projects\Personal\IdleChampions-CodeChestOpener\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Cloud\Dropbox\Code\Robotic Process Automation\Projects\Personal\IdleChampions-CodeChestOpener\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1346">
   <si>
     <t>Chest Code</t>
   </si>
@@ -2629,6 +2629,1440 @@
   </si>
   <si>
     <t>JCMR-AIDT-IME!</t>
+  </si>
+  <si>
+    <t>MORT-PLAP-SHAY</t>
+  </si>
+  <si>
+    <t>IDLE-TRYS-TAN!</t>
+  </si>
+  <si>
+    <t>2NDT-URKE-Y!!!</t>
+  </si>
+  <si>
+    <t>LOVE-UNSO-ILED</t>
+  </si>
+  <si>
+    <t>ESES-BREW-WINS-NETW</t>
+  </si>
+  <si>
+    <t>SITHSWUMNISHWALE</t>
+  </si>
+  <si>
+    <t>GART-WARY-MELL</t>
+  </si>
+  <si>
+    <t>WHAM-MANE-CAGS</t>
+  </si>
+  <si>
+    <t>WARD-UKEC-OMIC-BOOK</t>
+  </si>
+  <si>
+    <t>SKZL-FOZY-HYTE-NQCH</t>
+  </si>
+  <si>
+    <t>DEES-KALI-BABU</t>
+  </si>
+  <si>
+    <t>DELS-RAIA-FUSS-ARIS</t>
+  </si>
+  <si>
+    <t>LIGS-TARS-OOTS</t>
+  </si>
+  <si>
+    <t>EPIC-ICP4-END!</t>
+  </si>
+  <si>
+    <t>thathappened</t>
+  </si>
+  <si>
+    <t>PRET-URKE-YPAT-RONS</t>
+  </si>
+  <si>
+    <t>STIL-LSLE-EPY!</t>
+  </si>
+  <si>
+    <t>TIDE-BOKS-MIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEGS-DOOS-VINE </t>
+  </si>
+  <si>
+    <t>DOGE-SNIG-PODS</t>
+  </si>
+  <si>
+    <t>AMBO-FUTZ-POUT</t>
+  </si>
+  <si>
+    <t>CERO-LITU-CAMP</t>
+  </si>
+  <si>
+    <t>LAKH-LAMB-FARL</t>
+  </si>
+  <si>
+    <t>EYAS-PUTT-COPY-MYTH</t>
+  </si>
+  <si>
+    <t>ENDOFSEASON1</t>
+  </si>
+  <si>
+    <t>ILKA-CHAO-GIFT</t>
+  </si>
+  <si>
+    <t>SYCE-WHOT-RUDE</t>
+  </si>
+  <si>
+    <t>OBVI-OUSJ-OKES</t>
+  </si>
+  <si>
+    <t>GILT-KUTA-DIKA</t>
+  </si>
+  <si>
+    <t>YETT-HANT-VARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLDTATULINTSALP </t>
+  </si>
+  <si>
+    <t>PANS-SERR-HAUD</t>
+  </si>
+  <si>
+    <t>VUGG-LAZE-FAUN</t>
+  </si>
+  <si>
+    <t>FUSE-AWFY-GRIM</t>
+  </si>
+  <si>
+    <t>GEARURAOLEALHAZE</t>
+  </si>
+  <si>
+    <t>ANIG-HTMA-RE!!</t>
+  </si>
+  <si>
+    <t>PICK-LEDU-UUKE</t>
+  </si>
+  <si>
+    <t>BLUEDUUUUUKE</t>
+  </si>
+  <si>
+    <t>COED-TALA-SPUD</t>
+  </si>
+  <si>
+    <t>SPECIALPLACE</t>
+  </si>
+  <si>
+    <t>THEDMHIMSELF</t>
+  </si>
+  <si>
+    <t>COMMUNITY50!</t>
+  </si>
+  <si>
+    <t>JUVE-DAVY-KOIS-SLUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARD-UUUU-UKE! </t>
+  </si>
+  <si>
+    <t>CAMOFIRKVICE</t>
+  </si>
+  <si>
+    <t>ALAP-USED-PICS</t>
+  </si>
+  <si>
+    <t>GOFI-GURE-DND!</t>
+  </si>
+  <si>
+    <t>STARBURSTWARDUKE</t>
+  </si>
+  <si>
+    <t>WINN-ERIS-GAAR</t>
+  </si>
+  <si>
+    <t>WARD-ENLA-MENT</t>
+  </si>
+  <si>
+    <t>GAME-SHOW-TIME</t>
+  </si>
+  <si>
+    <t>!GAA-RVSM-ARS!</t>
+  </si>
+  <si>
+    <t>AIAS-YAWL-OBES</t>
+  </si>
+  <si>
+    <t>SAPS-ELAN-ROTS</t>
+  </si>
+  <si>
+    <t>MAIL-BACK-ROED-KUEH</t>
+  </si>
+  <si>
+    <t>LITE-WHOM-MADS</t>
+  </si>
+  <si>
+    <t>NINE-LOBI-PIXY</t>
+  </si>
+  <si>
+    <t>ZARIEL!MIRT!</t>
+  </si>
+  <si>
+    <t>GOBO-ALLY-LAVS-TAKY</t>
+  </si>
+  <si>
+    <t>DUCE-NOLO-SOLO</t>
+  </si>
+  <si>
+    <t>IOTA-TOLU-DELO</t>
+  </si>
+  <si>
+    <t>ERED-CLOU-URDS</t>
+  </si>
+  <si>
+    <t>COZE-PANG-URNS</t>
+  </si>
+  <si>
+    <t>AWRY-KIFS-DING</t>
+  </si>
+  <si>
+    <t>FEST-BETE-PONG</t>
+  </si>
+  <si>
+    <t>REHSDEESJOEY</t>
+  </si>
+  <si>
+    <t>SCUL-AFRO-CLEW</t>
+  </si>
+  <si>
+    <t>LEAR-NTOA-ZAKA-FARM</t>
+  </si>
+  <si>
+    <t>FIDS-TONY-YAFF</t>
+  </si>
+  <si>
+    <t>HUHU-OFFY-GAST</t>
+  </si>
+  <si>
+    <t>DOIT-AWEE-TANK</t>
+  </si>
+  <si>
+    <t>GLUE-TEEK-FAUT</t>
+  </si>
+  <si>
+    <t>TANKINGTAKE3</t>
+  </si>
+  <si>
+    <t>AMPS-EAVE-TIKI</t>
+  </si>
+  <si>
+    <t>YMPE-YELD-ACTA</t>
+  </si>
+  <si>
+    <t>DAFFYODESOPSKADI</t>
+  </si>
+  <si>
+    <t>RONZ-DESI-DREW</t>
+  </si>
+  <si>
+    <t>NIGH-THAG-ONE!</t>
+  </si>
+  <si>
+    <t>YEARLASTSAVE</t>
+  </si>
+  <si>
+    <t>GOFF-BAAS-HAPS</t>
+  </si>
+  <si>
+    <t>ITSA-FUZZ-YHAT</t>
+  </si>
+  <si>
+    <t>WINTERSDUKE!</t>
+  </si>
+  <si>
+    <t>WATS-DOOS-WISE</t>
+  </si>
+  <si>
+    <t>WALT-ERSI-CP4!</t>
+  </si>
+  <si>
+    <t>ZINS-LICE-JIBS-ACNE</t>
+  </si>
+  <si>
+    <t>PAIDWITHGOLD</t>
+  </si>
+  <si>
+    <t>WOOFFOALEXEC</t>
+  </si>
+  <si>
+    <t>HITWITHSWORD</t>
+  </si>
+  <si>
+    <t>TACKBRINARCSAZON</t>
+  </si>
+  <si>
+    <t>OGLE-RICY-DONS-ZIFF</t>
+  </si>
+  <si>
+    <t>LILTCUIFOATS</t>
+  </si>
+  <si>
+    <t>NAYS-DOSH-BOOL</t>
+  </si>
+  <si>
+    <t>QUAT-ECOD-SLEW</t>
+  </si>
+  <si>
+    <t>BARD-ICIN-NOV!</t>
+  </si>
+  <si>
+    <t>RIVEKNOTABETSUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAO-SCON-TROL </t>
+  </si>
+  <si>
+    <t>OPAL-BUNS-WEBS</t>
+  </si>
+  <si>
+    <t>PAPA-DOPO-ULOS</t>
+  </si>
+  <si>
+    <t>MEATSUETALKYPOET</t>
+  </si>
+  <si>
+    <t>NOUS-LUNK-CURL</t>
+  </si>
+  <si>
+    <t>AWFY-SINK-BUND</t>
+  </si>
+  <si>
+    <t>ZARI-TONS-GRIT</t>
+  </si>
+  <si>
+    <t>LOUN-TICS-ONES</t>
+  </si>
+  <si>
+    <t>dona-ar!!-paxu-2022</t>
+  </si>
+  <si>
+    <t>JERK-WAVE-PALY</t>
+  </si>
+  <si>
+    <t>MOPE-EDGY-TOBY</t>
+  </si>
+  <si>
+    <t>WAVE-JAKE-SOOP</t>
+  </si>
+  <si>
+    <t>WILL-UTAS-DOTS</t>
+  </si>
+  <si>
+    <t>RAWN-TELD-DOCO</t>
+  </si>
+  <si>
+    <t>GYNY-RAIA-ALOO</t>
+  </si>
+  <si>
+    <t>GEED-CRAY-UNDE</t>
+  </si>
+  <si>
+    <t>CARN-RIPS-WYNN</t>
+  </si>
+  <si>
+    <t>GJUS-GOLD-HILT</t>
+  </si>
+  <si>
+    <t>THEF-LAYE-RHUN-TERS</t>
+  </si>
+  <si>
+    <t>SULU-CARP-SEME</t>
+  </si>
+  <si>
+    <t>15PI-ECES-OFFL-AYER</t>
+  </si>
+  <si>
+    <t>LAST-MINI-OF-2022!!</t>
+  </si>
+  <si>
+    <t>RUES-JIFF-SPIF</t>
+  </si>
+  <si>
+    <t>SORI-TIKS-MATS</t>
+  </si>
+  <si>
+    <t>DARK-LORD-CHAT</t>
+  </si>
+  <si>
+    <t>SEASON2DEC21</t>
+  </si>
+  <si>
+    <t>SEE-YOU-IN-2023</t>
+  </si>
+  <si>
+    <t>ADVE-NTUR-ECAL</t>
+  </si>
+  <si>
+    <t>HOUT-NOIR-FISH</t>
+  </si>
+  <si>
+    <t>FLEY-CALO-KOAP</t>
+  </si>
+  <si>
+    <t>HOLIDAYSKETCHING</t>
+  </si>
+  <si>
+    <t>Mars Guiding Hand 296</t>
+  </si>
+  <si>
+    <t>WINTERFEST22</t>
+  </si>
+  <si>
+    <t>HYLADIREMOCK</t>
+  </si>
+  <si>
+    <t>TRIO-KEEN-MONG</t>
+  </si>
+  <si>
+    <t>#ONBREAKSOON</t>
+  </si>
+  <si>
+    <t>IZAR-JAMS-ELSE</t>
+  </si>
+  <si>
+    <t>OBOE-FUZZ-YHAT</t>
+  </si>
+  <si>
+    <t>OUMA-FOXY-TONS</t>
+  </si>
+  <si>
+    <t>#THANKSMOM17</t>
+  </si>
+  <si>
+    <t>ACTI-ONOR-KIRA</t>
+  </si>
+  <si>
+    <t>FINA-LNEW-GAME-PLUS</t>
+  </si>
+  <si>
+    <t>GODS-PENK-ABYE</t>
+  </si>
+  <si>
+    <t>PINA-UPAS-DUED</t>
+  </si>
+  <si>
+    <t>TOKE-LICH-HAMS</t>
+  </si>
+  <si>
+    <t>BETE-HASK-MINK</t>
+  </si>
+  <si>
+    <t>PINA-GONS-HASS</t>
+  </si>
+  <si>
+    <t>KELL-LINK-MOOK</t>
+  </si>
+  <si>
+    <t>WOLD-TEFS-HOLS</t>
+  </si>
+  <si>
+    <t>TYMP-ERGS-PLUE</t>
+  </si>
+  <si>
+    <t>OVER-BOOK-EDYT</t>
+  </si>
+  <si>
+    <t>CAGS-CALP-WHIG</t>
+  </si>
+  <si>
+    <t>WERE-RIFE-URDY</t>
+  </si>
+  <si>
+    <t>LUMP-MELT-APSO</t>
+  </si>
+  <si>
+    <t>CUSP-GELS-CORD</t>
+  </si>
+  <si>
+    <t>MIREBREEGEAL</t>
+  </si>
+  <si>
+    <t>ROMAEINEPALP</t>
+  </si>
+  <si>
+    <t>BALUPUHARENS</t>
+  </si>
+  <si>
+    <t>DEAR-BEAU-BROW</t>
+  </si>
+  <si>
+    <t>MOSK-WHOT-HOWE</t>
+  </si>
+  <si>
+    <t>POPE-GYTE-WEEL</t>
+  </si>
+  <si>
+    <t>UTIS-FLIR-LANG</t>
+  </si>
+  <si>
+    <t>NEXT-OPUS-CWZZ</t>
+  </si>
+  <si>
+    <t>TOLA-CAID-RIEM</t>
+  </si>
+  <si>
+    <t>BACH-GZQE-MYGG</t>
+  </si>
+  <si>
+    <t>LOAF-DURE-AMIA</t>
+  </si>
+  <si>
+    <t>TYPO-JADE-MOJO</t>
+  </si>
+  <si>
+    <t>CHAMPS-OF-RENOWN-Y5</t>
+  </si>
+  <si>
+    <t>GAUR-PEIN-DORK</t>
+  </si>
+  <si>
+    <t>DUAL-FORK-VERY</t>
+  </si>
+  <si>
+    <t>CHIS-TOWS-CYST</t>
+  </si>
+  <si>
+    <t>ONWARDS-TO-400</t>
+  </si>
+  <si>
+    <t>COOM-WELS-NERD</t>
+  </si>
+  <si>
+    <t>DEVI-NSIG-HT23</t>
+  </si>
+  <si>
+    <t>ITSL-ATIA-JACQ-UISE</t>
+  </si>
+  <si>
+    <t>THREEHUNDRED</t>
+  </si>
+  <si>
+    <t>GOEL-BOMB-CRAP</t>
+  </si>
+  <si>
+    <t>GLOM-CODA-HOLY</t>
+  </si>
+  <si>
+    <t>TOME-EWER-CETE</t>
+  </si>
+  <si>
+    <t>HISS-SSSS-SSSS</t>
+  </si>
+  <si>
+    <t>FAND-POKE-GLUM</t>
+  </si>
+  <si>
+    <t>DAUR-FURS-CHON</t>
+  </si>
+  <si>
+    <t>NEWY-EAR-TIME!</t>
+  </si>
+  <si>
+    <t>TETH-IMMY-GAPY</t>
+  </si>
+  <si>
+    <t>KOBO-LDS!-DND!</t>
+  </si>
+  <si>
+    <t>ELKS-MUNG-BAND</t>
+  </si>
+  <si>
+    <t>MOLS-HEYS-HOTS</t>
+  </si>
+  <si>
+    <t>ZEKS-CYMA-HUSH</t>
+  </si>
+  <si>
+    <t>INTO-GANE-JIBE</t>
+  </si>
+  <si>
+    <t>HUER-MESS-BUNT</t>
+  </si>
+  <si>
+    <t>HENS-TUNG-GAPY</t>
+  </si>
+  <si>
+    <t>PROP-PLIE-DOWP</t>
+  </si>
+  <si>
+    <t>KEPT-SNAP-BEYS</t>
+  </si>
+  <si>
+    <t>GOFI-GURE-ONYT</t>
+  </si>
+  <si>
+    <t>LETS-SAVE-MORE</t>
+  </si>
+  <si>
+    <t>MODR-ONSW-ITHT-ANYA</t>
+  </si>
+  <si>
+    <t>BEST-GEEZ-COOM</t>
+  </si>
+  <si>
+    <t>APTS-RLKI-GPFF</t>
+  </si>
+  <si>
+    <t>BUT-DANGER-OUS</t>
+  </si>
+  <si>
+    <t>FENANDIZZY!!</t>
+  </si>
+  <si>
+    <t>ORDER-6T-SIX!!</t>
+  </si>
+  <si>
+    <t>IDLE-INSIGHTS-FEN!</t>
+  </si>
+  <si>
+    <t>BACK-IS-SHAWN!</t>
+  </si>
+  <si>
+    <t>#MISCHIEVOUS</t>
+  </si>
+  <si>
+    <t>UNDE-ROCK-OATY</t>
+  </si>
+  <si>
+    <t>JAN-SKETCH-ING</t>
+  </si>
+  <si>
+    <t>BROO-SAGY-TYPO</t>
+  </si>
+  <si>
+    <t>WERE-CERO-ONES</t>
+  </si>
+  <si>
+    <t>ITS-FEN-DAY-YAY</t>
+  </si>
+  <si>
+    <t>AMMO-FAIK-DIYA</t>
+  </si>
+  <si>
+    <t>PARD-GOBS-RIOT</t>
+  </si>
+  <si>
+    <t>GAUN-MILE-BOMA</t>
+  </si>
+  <si>
+    <t>SLEB-MAZE-DIPS</t>
+  </si>
+  <si>
+    <t>IKAN-HEAD-KIPE</t>
+  </si>
+  <si>
+    <t>WAPS-WYNS-FUME</t>
+  </si>
+  <si>
+    <t>YURT-QUAY-HATS</t>
+  </si>
+  <si>
+    <t>AIRT-NORK-AYIN</t>
+  </si>
+  <si>
+    <t>RUFF-ALAP-MEND</t>
+  </si>
+  <si>
+    <t>LEAD-NEST-BLOB</t>
+  </si>
+  <si>
+    <t>WAWS-TUZQ-DDWK</t>
+  </si>
+  <si>
+    <t>#FEN-DPSI-SFUN</t>
+  </si>
+  <si>
+    <t>VEND-TELL-DUDE</t>
+  </si>
+  <si>
+    <t>CILL-TAKE-GRRL</t>
+  </si>
+  <si>
+    <t>FUMY-CONY-KIPS</t>
+  </si>
+  <si>
+    <t>WINO-DUKA-LYRE</t>
+  </si>
+  <si>
+    <t>WEMS-ZOIC-SECH</t>
+  </si>
+  <si>
+    <t>DAZE-WARD-CLAW</t>
+  </si>
+  <si>
+    <t>GILD-GARB-AVER</t>
+  </si>
+  <si>
+    <t>WING-RYPE-PALS</t>
+  </si>
+  <si>
+    <t>TIER-ROOF-NOPE</t>
+  </si>
+  <si>
+    <t>2022-CHAM-PION-SPT4</t>
+  </si>
+  <si>
+    <t>BENI-TORY-JOHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORM-SAVE-100! </t>
+  </si>
+  <si>
+    <t>DHANI-PAINTS!</t>
+  </si>
+  <si>
+    <t>VANT-GOAS-COBB</t>
+  </si>
+  <si>
+    <t>GERE-SANG-NEST</t>
+  </si>
+  <si>
+    <t>#DID-YA-MISS-ME</t>
+  </si>
+  <si>
+    <t>FRES-HSTA-RT#3</t>
+  </si>
+  <si>
+    <t>ORAN-GEUP-DATE</t>
+  </si>
+  <si>
+    <t>2023-ITSV-EE!!</t>
+  </si>
+  <si>
+    <t>DORE-PLIM-LEPT</t>
+  </si>
+  <si>
+    <t>DIDO-TINY-ROIN</t>
+  </si>
+  <si>
+    <t>PUCK-PUNG-WAVE</t>
+  </si>
+  <si>
+    <t>THAN-KYOU-TREA-VOR!</t>
+  </si>
+  <si>
+    <t>#NEWS-EASO-NWHO-DIS</t>
+  </si>
+  <si>
+    <t>CAFF-YAUP-FIFE</t>
+  </si>
+  <si>
+    <t>BLUC-RUFE-NDAY</t>
+  </si>
+  <si>
+    <t>HART-SNOB-DIDY</t>
+  </si>
+  <si>
+    <t>LONE-TANG-ESKY</t>
+  </si>
+  <si>
+    <t>HEAL-RSAA-CQRR</t>
+  </si>
+  <si>
+    <t>GAME-PADM-ODE!</t>
+  </si>
+  <si>
+    <t>NESH-DEED-MQSO-BORM</t>
+  </si>
+  <si>
+    <t>DOOB-LOGS-DHOW</t>
+  </si>
+  <si>
+    <t>AKAS-WAWL-KZAZ</t>
+  </si>
+  <si>
+    <t>#SEA-SONG-RIND</t>
+  </si>
+  <si>
+    <t>ETEN-VIBS-PELF</t>
+  </si>
+  <si>
+    <t>TWAE-LARD-PURE</t>
+  </si>
+  <si>
+    <t>TAES-GODS-SWAP</t>
+  </si>
+  <si>
+    <t>TRAM-PHIS-DANG</t>
+  </si>
+  <si>
+    <t>LOKE-TUNY-PENE</t>
+  </si>
+  <si>
+    <t>IVEGOTYOUFRIENDS</t>
+  </si>
+  <si>
+    <t>SNEB-TASK-FOSS-PRAU</t>
+  </si>
+  <si>
+    <t>NIGH-BAFF-NYES-PICA</t>
+  </si>
+  <si>
+    <t>HOPE-LEER-FAME</t>
+  </si>
+  <si>
+    <t>SAIM-FISH-YEAH</t>
+  </si>
+  <si>
+    <t>WATC-HCLO-SELY</t>
+  </si>
+  <si>
+    <t>JAIL-TATE-HORE</t>
+  </si>
+  <si>
+    <t>LEGENDARY$$$</t>
+  </si>
+  <si>
+    <t>Mons-terC-rows</t>
+  </si>
+  <si>
+    <t>KUEH-YMPE-YELM</t>
+  </si>
+  <si>
+    <t>DORY-MYNA-OOFY</t>
+  </si>
+  <si>
+    <t>#BELEGENDARY</t>
+  </si>
+  <si>
+    <t>EYELOVEVECNA</t>
+  </si>
+  <si>
+    <t>BEDS-BOON-ALUM</t>
+  </si>
+  <si>
+    <t>SPEL-LJAM-MERS-HAKA</t>
+  </si>
+  <si>
+    <t>GETNEWTIRES!</t>
+  </si>
+  <si>
+    <t>VECNALOSTEYE</t>
+  </si>
+  <si>
+    <t>TIP-THE-SCALES</t>
+  </si>
+  <si>
+    <t>UDAL-FELT-PASE</t>
+  </si>
+  <si>
+    <t>PAIN-TING-BIRB</t>
+  </si>
+  <si>
+    <t>101S-AVET-RICK</t>
+  </si>
+  <si>
+    <t>DIED-CHAD-JOLE</t>
+  </si>
+  <si>
+    <t>TRIA-LSAN-DFOR-GE!!</t>
+  </si>
+  <si>
+    <t>ODAL-TAKE-ECHT</t>
+  </si>
+  <si>
+    <t>NEST-PEEP-BLUB</t>
+  </si>
+  <si>
+    <t>CAFE-DUSH-MOCK</t>
+  </si>
+  <si>
+    <t>GILD-ED!G-ALS!</t>
+  </si>
+  <si>
+    <t>TRAM-BOYG-MOYA</t>
+  </si>
+  <si>
+    <t>MOAS-FUSS-LARD</t>
+  </si>
+  <si>
+    <t>URPS-MATY-INRO</t>
+  </si>
+  <si>
+    <t>DALT-CAPP-SQGS</t>
+  </si>
+  <si>
+    <t>DOLS-DOVE-JOOK</t>
+  </si>
+  <si>
+    <t>MING-MELA-HEED</t>
+  </si>
+  <si>
+    <t>NORK-KUTI-YEUK</t>
+  </si>
+  <si>
+    <t>WHAT-IS-MY-WALL</t>
+  </si>
+  <si>
+    <t>CERT-TANS-NOIR</t>
+  </si>
+  <si>
+    <t>DOOR-GECK-MHFL-QTYF</t>
+  </si>
+  <si>
+    <t>OSAR-JIGS-APAY-COIT</t>
+  </si>
+  <si>
+    <t>EILD-YEPS-BRAD</t>
+  </si>
+  <si>
+    <t>SITH-GNAR-TUNS</t>
+  </si>
+  <si>
+    <t>BDSASSEMBLE!</t>
+  </si>
+  <si>
+    <t>FRET-BLED-GADS</t>
+  </si>
+  <si>
+    <t>YONT-JIMP-NESS</t>
+  </si>
+  <si>
+    <t>ITSU-RIAH-TIME</t>
+  </si>
+  <si>
+    <t>RUST-CROW-DOTS</t>
+  </si>
+  <si>
+    <t>TEDY-WIST-NEUK</t>
+  </si>
+  <si>
+    <t>OHYE-ABRO-THER</t>
+  </si>
+  <si>
+    <t>RANG-TREY-FAZE</t>
+  </si>
+  <si>
+    <t>TOOM-ABLY-BETA</t>
+  </si>
+  <si>
+    <t>SPAC-EDRA-GONS</t>
+  </si>
+  <si>
+    <t>SANK-VETS-KOBS</t>
+  </si>
+  <si>
+    <t>SOLA-AKHI-ICP5</t>
+  </si>
+  <si>
+    <t>MALI-LUIT-YAWL</t>
+  </si>
+  <si>
+    <t>ARTO-MANC-ERS!</t>
+  </si>
+  <si>
+    <t>LUST-BOAK-PITY</t>
+  </si>
+  <si>
+    <t>SOLAAKATTACK</t>
+  </si>
+  <si>
+    <t>VILE-BASH-SKIT</t>
+  </si>
+  <si>
+    <t>WERT-PLUG-SAID</t>
+  </si>
+  <si>
+    <t>JINS-PLIE-LITS</t>
+  </si>
+  <si>
+    <t>TRET-EPOS-JEFF</t>
+  </si>
+  <si>
+    <t>CXFF-LZET-KETB</t>
+  </si>
+  <si>
+    <t>TIME-GATE-PICK</t>
+  </si>
+  <si>
+    <t>BOTW-MQNS-OWSE-WNHK</t>
+  </si>
+  <si>
+    <t>NOUN-SNIB-PELA</t>
+  </si>
+  <si>
+    <t>FEED-THAT-FROG</t>
+  </si>
+  <si>
+    <t>TIME-WABS-BOAR</t>
+  </si>
+  <si>
+    <t>PIMP-HAYS-JOLL</t>
+  </si>
+  <si>
+    <t>NITE-ORDQ-IDCZ</t>
+  </si>
+  <si>
+    <t>KAWA-CROP-LOWP</t>
+  </si>
+  <si>
+    <t>SENTRYBLACKROSE!</t>
+  </si>
+  <si>
+    <t>SOMY-POME-BLEW</t>
+  </si>
+  <si>
+    <t>TALE-SEEN-ECAD</t>
+  </si>
+  <si>
+    <t>hoke-mons-ayah</t>
+  </si>
+  <si>
+    <t>THREEDARKKNIGHTS</t>
+  </si>
+  <si>
+    <t>OWOW-FORM-SAVE</t>
+  </si>
+  <si>
+    <t>STEE-LEDI-TION</t>
+  </si>
+  <si>
+    <t>IMPI-BOAR-ZELS</t>
+  </si>
+  <si>
+    <t>BLUE-LY4C-ROU!</t>
+  </si>
+  <si>
+    <t>TINN-LOPS-XUPQ</t>
+  </si>
+  <si>
+    <t>PSPS-PSPS-PSPS</t>
+  </si>
+  <si>
+    <t>TEMPTINGFATE</t>
+  </si>
+  <si>
+    <t>MISTYCHARITY</t>
+  </si>
+  <si>
+    <t>BIPO-CSUP-PORT</t>
+  </si>
+  <si>
+    <t>AWWKITTYWISP</t>
+  </si>
+  <si>
+    <t>XARY-XISS-TORY</t>
+  </si>
+  <si>
+    <t>NURS-PYOT-HOMY</t>
+  </si>
+  <si>
+    <t>FLUS-ZELS-SOUP</t>
+  </si>
+  <si>
+    <t>AIRN-AVOW-HEID</t>
+  </si>
+  <si>
+    <t>MOLA-MOLA-FISH</t>
+  </si>
+  <si>
+    <t>ITSWEDNESDAYDUDE</t>
+  </si>
+  <si>
+    <t>TIKE-BUAT-YEVE</t>
+  </si>
+  <si>
+    <t>WEDMGHMOVING</t>
+  </si>
+  <si>
+    <t>SUMS-GORI-POOS</t>
+  </si>
+  <si>
+    <t>THIS-ONEW-ILLW-ORK!</t>
+  </si>
+  <si>
+    <t>BAWN-CEAS-CASK</t>
+  </si>
+  <si>
+    <t>HETS-POUF-CRAB</t>
+  </si>
+  <si>
+    <t>JURA-ZERK-LOUS</t>
+  </si>
+  <si>
+    <t>FLEE-TSWA-KEY6</t>
+  </si>
+  <si>
+    <t>HAWM-URGQ-PZAA</t>
+  </si>
+  <si>
+    <t>SAVE-DRAG-ONFO-RMS!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PART-1DUE-RGAR </t>
+  </si>
+  <si>
+    <t>FOID-HIKE-FIGO</t>
+  </si>
+  <si>
+    <t>FRIT-SETA-DERE</t>
+  </si>
+  <si>
+    <t>SOLA-AKPL-EASE</t>
+  </si>
+  <si>
+    <t>TRAV-ELTO-TOMB</t>
+  </si>
+  <si>
+    <t>DEVS-COMP-LAIN</t>
+  </si>
+  <si>
+    <t>DRAK-EWAR-DEN!</t>
+  </si>
+  <si>
+    <t>DoubleDragon</t>
+  </si>
+  <si>
+    <t>DRAG-ONRI-DERZ</t>
+  </si>
+  <si>
+    <t>BLCK-ROSE-MERI-LWEN</t>
+  </si>
+  <si>
+    <t>BUBS-PUSH-ANCE</t>
+  </si>
+  <si>
+    <t>VEIN-MAIK-WENT</t>
+  </si>
+  <si>
+    <t>GURN-KENO-STUB</t>
+  </si>
+  <si>
+    <t>ARCH-PITH-BEND</t>
+  </si>
+  <si>
+    <t>ZEAS-BOOK-ROSE</t>
+  </si>
+  <si>
+    <t>ABLY-GETS-DAWS</t>
+  </si>
+  <si>
+    <t>HUIS-FARM-FAIN</t>
+  </si>
+  <si>
+    <t>ARIL-COLL-GLAD</t>
+  </si>
+  <si>
+    <t>RHEA-LIRK-HUSH</t>
+  </si>
+  <si>
+    <t>DMCH-AMPS-OFRE-NOWN</t>
+  </si>
+  <si>
+    <t>WILE-JIMP-GOLD</t>
+  </si>
+  <si>
+    <t>ALIC-ALIC-ALIC</t>
+  </si>
+  <si>
+    <t>MORE-DUER-GAR!</t>
+  </si>
+  <si>
+    <t>CUPS-MOOP-WAUL</t>
+  </si>
+  <si>
+    <t>MREZ-ZVUM-QLKS</t>
+  </si>
+  <si>
+    <t>BLUCRUTIAMAT</t>
+  </si>
+  <si>
+    <t>DINO-SAUR-ALLA-ROUN</t>
+  </si>
+  <si>
+    <t>WEREOUTATIME</t>
+  </si>
+  <si>
+    <t>CQACHESTCODE</t>
+  </si>
+  <si>
+    <t>DRAGONLANCEZ</t>
+  </si>
+  <si>
+    <t>AITU-AMBO-TYPP</t>
+  </si>
+  <si>
+    <t>VARY-STAT-KOEL</t>
+  </si>
+  <si>
+    <t>TANK-FROM-BACK</t>
+  </si>
+  <si>
+    <t>DEAD-LYGR-UNG!</t>
+  </si>
+  <si>
+    <t>EXIT-AIDE-BASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUECRUNDEAD </t>
+  </si>
+  <si>
+    <t>THRE-EQUA-RTER</t>
+  </si>
+  <si>
+    <t>MARK-!MIR-IAQA</t>
+  </si>
+  <si>
+    <t>KINE-BUFF-WAIR</t>
+  </si>
+  <si>
+    <t>MELA-CRUE-CAUL</t>
+  </si>
+  <si>
+    <t>ARIS-EMIN-IONS</t>
+  </si>
+  <si>
+    <t>CHUT-PULK-LOBO</t>
+  </si>
+  <si>
+    <t>NOVA-ALEE-CHIP</t>
+  </si>
+  <si>
+    <t>SETT-NEFS-OHMS</t>
+  </si>
+  <si>
+    <t>MARS-ARTD-AY!!</t>
+  </si>
+  <si>
+    <t>SNEE-STUM-WUDU</t>
+  </si>
+  <si>
+    <t>ROOF-SHIN-ILLS</t>
+  </si>
+  <si>
+    <t>BULL-AMOK-SOUR</t>
+  </si>
+  <si>
+    <t>SEAS-ON3I-SLIV-ENOW</t>
+  </si>
+  <si>
+    <t>NOSH-TALE-LEGS</t>
+  </si>
+  <si>
+    <t>SEASON3SOON!</t>
+  </si>
+  <si>
+    <t>SENS-PYRE-SEEK</t>
+  </si>
+  <si>
+    <t>MICA-GULL-EDDY</t>
+  </si>
+  <si>
+    <t>YAGS-SEAN-KORO-KUDO</t>
+  </si>
+  <si>
+    <t>ALBE-REDS-MOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAPPYPIEDAY! </t>
+  </si>
+  <si>
+    <t>NEUM-DIXY-SECH</t>
+  </si>
+  <si>
+    <t>WORT-CAGS-PELA</t>
+  </si>
+  <si>
+    <t>BLIN-TANH-YELP</t>
+  </si>
+  <si>
+    <t>FAYS-TUMP-PEEP</t>
+  </si>
+  <si>
+    <t>TUTS-MENU-TAYS</t>
+  </si>
+  <si>
+    <t>INIA-DBSQ-DOTH</t>
+  </si>
+  <si>
+    <t>DRAG-ONLA-NCER-UST!</t>
+  </si>
+  <si>
+    <t>MOUS-JOTS-SCAR</t>
+  </si>
+  <si>
+    <t>POLY-SPIE-DIES</t>
+  </si>
+  <si>
+    <t>DOTE-FOPS-BUTE</t>
+  </si>
+  <si>
+    <t>KYAR-DORY-MATE</t>
+  </si>
+  <si>
+    <t>ANCHNTS&amp;LWBRNGRS</t>
+  </si>
+  <si>
+    <t>IRKS-BREE-VAIN</t>
+  </si>
+  <si>
+    <t>SAVINGALLFORMS!!</t>
+  </si>
+  <si>
+    <t>3PAR-TDUE-RGAR</t>
+  </si>
+  <si>
+    <t>TGIF-FORG-G2E!</t>
+  </si>
+  <si>
+    <t>ACREWOFBLUES</t>
+  </si>
+  <si>
+    <t>NEWG-AMES-PLIT</t>
+  </si>
+  <si>
+    <t>FUNF-ALSE-FACT</t>
+  </si>
+  <si>
+    <t>MERI-LWEN-FURY</t>
+  </si>
+  <si>
+    <t>UNAFFILIATED</t>
+  </si>
+  <si>
+    <t>LAWFUL-SEASON</t>
+  </si>
+  <si>
+    <t>AIRN-MIST-SAUT</t>
+  </si>
+  <si>
+    <t>BRIS-PUPU-WICE</t>
+  </si>
+  <si>
+    <t>ZOMB-IEIN-FORM</t>
+  </si>
+  <si>
+    <t>JASMINEPAINTING!</t>
+  </si>
+  <si>
+    <t>KAVQ-SOVS-HAST</t>
+  </si>
+  <si>
+    <t>GAAR-SGOT-YOU!</t>
+  </si>
+  <si>
+    <t>GLIT-WATE-PARD</t>
+  </si>
+  <si>
+    <t>EVEN-TEND-SOON</t>
+  </si>
+  <si>
+    <t>VARI-ANTS-PLUS</t>
+  </si>
+  <si>
+    <t>HCSY-PESR-EVER</t>
+  </si>
+  <si>
+    <t>RUST-ONKR-YNN!</t>
+  </si>
+  <si>
+    <t>MIRIAWEEKTWO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULKO-RIAM-IRIA </t>
+  </si>
+  <si>
+    <t>BAND-JUGA-KIEV</t>
+  </si>
+  <si>
+    <t>SEGS-SIST-BURP</t>
+  </si>
+  <si>
+    <t>ARAR-HEAL-PELT</t>
+  </si>
+  <si>
+    <t>DHAK-VEXT-TRAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISRA-TOAD-DAY! </t>
+  </si>
+  <si>
+    <t>CROC-RIVE-YAAR</t>
+  </si>
+  <si>
+    <t>#THREETORIAL</t>
+  </si>
+  <si>
+    <t>LUNY-NITE-VELA</t>
+  </si>
+  <si>
+    <t>INFE-RNAL-TOAD</t>
+  </si>
+  <si>
+    <t>GINN-META-VOID</t>
+  </si>
+  <si>
+    <t>PART-YSPL-ITOK</t>
+  </si>
+  <si>
+    <t>CIRL-FITT-ROUL-TREY</t>
+  </si>
+  <si>
+    <t>SORI-COLL-BOZO</t>
+  </si>
+  <si>
+    <t>MIRIASTRATS!</t>
+  </si>
+  <si>
+    <t>DOUP-PONK-QUID</t>
+  </si>
+  <si>
+    <t>LONE-WARS-INBY</t>
+  </si>
+  <si>
+    <t>LUKE-INTO-GORY</t>
+  </si>
+  <si>
+    <t>BIDI-POOK-BEGS</t>
+  </si>
+  <si>
+    <t>JUKU-SUNG-SWUM</t>
+  </si>
+  <si>
+    <t>EBON-YLEM-GAID</t>
+  </si>
+  <si>
+    <t>LORD-SOTH-ANDM-IRIA</t>
+  </si>
+  <si>
+    <t>DICE-AALZ-WYUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUBO-NEPS-SLEW </t>
+  </si>
+  <si>
+    <t>WONT-JEEZ-KUTA</t>
+  </si>
+  <si>
+    <t>DOCS-DUOS-DAKS</t>
+  </si>
+  <si>
+    <t>RUSE-FUNS-CONK</t>
+  </si>
+  <si>
+    <t>ALBA-MESS-RAVS</t>
+  </si>
+  <si>
+    <t>FEST-IVAL-OFFO-OLS6</t>
+  </si>
+  <si>
+    <t>LIFT-SESS-POND</t>
+  </si>
+  <si>
+    <t>BIGG-ERAC-QINC-CREW</t>
+  </si>
+  <si>
+    <t>IRES-DOOS-LUSK</t>
+  </si>
+  <si>
+    <t>FAAS-KANG-REIS</t>
   </si>
 </sst>
 </file>
@@ -2953,10 +4387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D886"/>
+  <dimension ref="A1:D1366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
-      <selection activeCell="B864" sqref="B864"/>
+    <sheetView tabSelected="1" topLeftCell="A1358" workbookViewId="0">
+      <selection activeCell="B1362" sqref="B1362:B1366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10051,6 +11485,3846 @@
         <v>867</v>
       </c>
       <c r="B886" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>868</v>
+      </c>
+      <c r="B887" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>869</v>
+      </c>
+      <c r="B888" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>870</v>
+      </c>
+      <c r="B889" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>871</v>
+      </c>
+      <c r="B890" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>872</v>
+      </c>
+      <c r="B891" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>873</v>
+      </c>
+      <c r="B892" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>874</v>
+      </c>
+      <c r="B893" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>875</v>
+      </c>
+      <c r="B894" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>876</v>
+      </c>
+      <c r="B895" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>877</v>
+      </c>
+      <c r="B896" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>878</v>
+      </c>
+      <c r="B897" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>879</v>
+      </c>
+      <c r="B898" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>880</v>
+      </c>
+      <c r="B899" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>881</v>
+      </c>
+      <c r="B900" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>882</v>
+      </c>
+      <c r="B901" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>883</v>
+      </c>
+      <c r="B902" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>884</v>
+      </c>
+      <c r="B903" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>885</v>
+      </c>
+      <c r="B904" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>886</v>
+      </c>
+      <c r="B905" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>887</v>
+      </c>
+      <c r="B906" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>888</v>
+      </c>
+      <c r="B907" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>889</v>
+      </c>
+      <c r="B908" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>890</v>
+      </c>
+      <c r="B909" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>891</v>
+      </c>
+      <c r="B910" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>892</v>
+      </c>
+      <c r="B911" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>893</v>
+      </c>
+      <c r="B912" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>894</v>
+      </c>
+      <c r="B913" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>895</v>
+      </c>
+      <c r="B914" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>896</v>
+      </c>
+      <c r="B915" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>897</v>
+      </c>
+      <c r="B916" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>898</v>
+      </c>
+      <c r="B917" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>899</v>
+      </c>
+      <c r="B918" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>900</v>
+      </c>
+      <c r="B919" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>901</v>
+      </c>
+      <c r="B920" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>902</v>
+      </c>
+      <c r="B921" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>903</v>
+      </c>
+      <c r="B922" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>904</v>
+      </c>
+      <c r="B923" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>905</v>
+      </c>
+      <c r="B924" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>906</v>
+      </c>
+      <c r="B925" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>907</v>
+      </c>
+      <c r="B926" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>908</v>
+      </c>
+      <c r="B927" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>909</v>
+      </c>
+      <c r="B928" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>910</v>
+      </c>
+      <c r="B929" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>911</v>
+      </c>
+      <c r="B930" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>912</v>
+      </c>
+      <c r="B931" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>913</v>
+      </c>
+      <c r="B932" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>914</v>
+      </c>
+      <c r="B933" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>915</v>
+      </c>
+      <c r="B934" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>916</v>
+      </c>
+      <c r="B935" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>917</v>
+      </c>
+      <c r="B936" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>918</v>
+      </c>
+      <c r="B937" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>919</v>
+      </c>
+      <c r="B938" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>920</v>
+      </c>
+      <c r="B939" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>921</v>
+      </c>
+      <c r="B940" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>922</v>
+      </c>
+      <c r="B941" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>923</v>
+      </c>
+      <c r="B942" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>924</v>
+      </c>
+      <c r="B943" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>925</v>
+      </c>
+      <c r="B944" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>926</v>
+      </c>
+      <c r="B945" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>927</v>
+      </c>
+      <c r="B946" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>928</v>
+      </c>
+      <c r="B947" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>929</v>
+      </c>
+      <c r="B948" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>930</v>
+      </c>
+      <c r="B949" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>931</v>
+      </c>
+      <c r="B950" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>932</v>
+      </c>
+      <c r="B951" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>933</v>
+      </c>
+      <c r="B952" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>934</v>
+      </c>
+      <c r="B953" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>935</v>
+      </c>
+      <c r="B954" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>936</v>
+      </c>
+      <c r="B955" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>937</v>
+      </c>
+      <c r="B956" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>938</v>
+      </c>
+      <c r="B957" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>939</v>
+      </c>
+      <c r="B958" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>940</v>
+      </c>
+      <c r="B959" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>941</v>
+      </c>
+      <c r="B960" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>942</v>
+      </c>
+      <c r="B961" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>943</v>
+      </c>
+      <c r="B962" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>944</v>
+      </c>
+      <c r="B963" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>945</v>
+      </c>
+      <c r="B964" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>946</v>
+      </c>
+      <c r="B965" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>947</v>
+      </c>
+      <c r="B966" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>948</v>
+      </c>
+      <c r="B967" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>949</v>
+      </c>
+      <c r="B968" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>950</v>
+      </c>
+      <c r="B969" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>951</v>
+      </c>
+      <c r="B970" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>952</v>
+      </c>
+      <c r="B971" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>953</v>
+      </c>
+      <c r="B972" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>954</v>
+      </c>
+      <c r="B973" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>955</v>
+      </c>
+      <c r="B974" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>956</v>
+      </c>
+      <c r="B975" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>957</v>
+      </c>
+      <c r="B976" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>958</v>
+      </c>
+      <c r="B977" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>959</v>
+      </c>
+      <c r="B978" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>960</v>
+      </c>
+      <c r="B979" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>961</v>
+      </c>
+      <c r="B980" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>962</v>
+      </c>
+      <c r="B981" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>963</v>
+      </c>
+      <c r="B982" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>964</v>
+      </c>
+      <c r="B983" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>965</v>
+      </c>
+      <c r="B984" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>966</v>
+      </c>
+      <c r="B985" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>967</v>
+      </c>
+      <c r="B986" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>968</v>
+      </c>
+      <c r="B987" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>969</v>
+      </c>
+      <c r="B988" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>970</v>
+      </c>
+      <c r="B989" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>971</v>
+      </c>
+      <c r="B990" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>972</v>
+      </c>
+      <c r="B991" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>973</v>
+      </c>
+      <c r="B992" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>974</v>
+      </c>
+      <c r="B993" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>975</v>
+      </c>
+      <c r="B994" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>976</v>
+      </c>
+      <c r="B995" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>977</v>
+      </c>
+      <c r="B996" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>978</v>
+      </c>
+      <c r="B997" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>979</v>
+      </c>
+      <c r="B998" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>980</v>
+      </c>
+      <c r="B999" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1000" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1001" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1002" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1003" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1004" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1005" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1006" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1007" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1008" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1009" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1010" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1011" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1012" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1013" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1014" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1015" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1016" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1017" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1018" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1019" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1020" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1021" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1022" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1023" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1024" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1025" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1026" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1027" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1028" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1029" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1030" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1031" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1032" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1033" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1034" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1035" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1036" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1037" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1038" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1039" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1040" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1041" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1042" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1043" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1044" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1045" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1046" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1047" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1048" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1049" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1050" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1051" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1052" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1053" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1054" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1055" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1056" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1057" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1058" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1059" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1060" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1061" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1062" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1063" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1064" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1065" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1066" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1067" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1068" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1069" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1070" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1071" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1072" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1073" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1074" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1075" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1076" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1077" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1078" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1079" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1080" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1081" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1082" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1083" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1084" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1085" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1086" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1087" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1088" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1089" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1090" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1091" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1092" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1093" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1094" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1095" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1096" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1097" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1098" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1099" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1228" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1256" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1259" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1266" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1268" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1276" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1285" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1287" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1293" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1303" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1304" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1305" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1306" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1313" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1324" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1331" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1332" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1341" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1366" t="b">
         <v>1</v>
       </c>
     </row>
